--- a/matlab/statistics/rawDataAnovaPitchDiffThresholdWithout9Sub.xlsx
+++ b/matlab/statistics/rawDataAnovaPitchDiffThresholdWithout9Sub.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21126"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{40A520EA-C559-4270-9E38-517FA039BA51}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1582536F-338B-46DC-B540-4BB59693A61D}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12650" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="249" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="237" uniqueCount="13">
   <si>
     <t>Observation</t>
   </si>
@@ -388,10 +388,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I121"/>
+  <dimension ref="A1:I115"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F1" sqref="F1"/>
+      <selection activeCell="F2" sqref="F2:F115"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -451,18 +451,18 @@
         <v>5</v>
       </c>
       <c r="F2">
-        <v>0.56479458917835679</v>
+        <v>0.6916032064128258</v>
       </c>
       <c r="G2" s="2">
         <f>F2</f>
-        <v>0.56479458917835679</v>
+        <v>0.6916032064128258</v>
       </c>
       <c r="H2" s="2">
         <v>0.38800000000000001</v>
       </c>
       <c r="I2" s="2">
         <f>G2-H2</f>
-        <v>0.17679458917835678</v>
+        <v>0.30360320641282579</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.35">
@@ -482,18 +482,18 @@
         <v>5</v>
       </c>
       <c r="F3">
-        <v>0.60133266533066132</v>
+        <v>0.75393286573146301</v>
       </c>
       <c r="G3" s="2">
         <f>F3</f>
-        <v>0.60133266533066132</v>
+        <v>0.75393286573146301</v>
       </c>
       <c r="H3" s="2">
         <v>0.38800000000000001</v>
       </c>
       <c r="I3" s="2">
-        <f t="shared" ref="I3:I66" si="0">G3-H3</f>
-        <v>0.21333266533066131</v>
+        <f t="shared" ref="I3:I63" si="0">G3-H3</f>
+        <v>0.365932865731463</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.35">
@@ -513,18 +513,18 @@
         <v>5</v>
       </c>
       <c r="F4">
-        <v>0.68515531062124246</v>
+        <v>0.88074148296593191</v>
       </c>
       <c r="G4" s="2">
-        <f t="shared" ref="G4:G67" si="1">F4</f>
-        <v>0.68515531062124246</v>
+        <f t="shared" ref="G4:G64" si="1">F4</f>
+        <v>0.88074148296593191</v>
       </c>
       <c r="H4" s="2">
         <v>0.38800000000000001</v>
       </c>
       <c r="I4" s="2">
         <f t="shared" si="0"/>
-        <v>0.29715531062124245</v>
+        <v>0.4927414829659319</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.35">
@@ -544,18 +544,18 @@
         <v>5</v>
       </c>
       <c r="F5">
-        <v>0.51321142284569143</v>
+        <v>0.60563126252505017</v>
       </c>
       <c r="G5" s="2">
         <f t="shared" si="1"/>
-        <v>0.51321142284569143</v>
+        <v>0.60563126252505017</v>
       </c>
       <c r="H5" s="2">
         <v>0.38800000000000001</v>
       </c>
       <c r="I5" s="2">
         <f t="shared" si="0"/>
-        <v>0.12521142284569142</v>
+        <v>0.21763126252505016</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.35">
@@ -575,18 +575,18 @@
         <v>5</v>
       </c>
       <c r="F6">
-        <v>0.56049599198396793</v>
+        <v>0.68300601202404831</v>
       </c>
       <c r="G6" s="2">
         <f t="shared" si="1"/>
-        <v>0.56049599198396793</v>
+        <v>0.68300601202404831</v>
       </c>
       <c r="H6" s="2">
         <v>0.38800000000000001</v>
       </c>
       <c r="I6" s="2">
         <f t="shared" si="0"/>
-        <v>0.17249599198396792</v>
+        <v>0.2950060120240483</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.35">
@@ -606,18 +606,18 @@
         <v>5</v>
       </c>
       <c r="F7">
-        <v>0.4164929859719439</v>
+        <v>0.42509018036072144</v>
       </c>
       <c r="G7" s="2">
         <f t="shared" si="1"/>
-        <v>0.4164929859719439</v>
+        <v>0.42509018036072144</v>
       </c>
       <c r="H7" s="2">
         <v>0.38800000000000001</v>
       </c>
       <c r="I7" s="2">
         <f t="shared" si="0"/>
-        <v>2.8492985971943885E-2</v>
+        <v>3.7090180360721425E-2</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.35">
@@ -637,18 +637,18 @@
         <v>5</v>
       </c>
       <c r="F8">
-        <v>1.2418236472945892</v>
+        <v>1.6007565130260519</v>
       </c>
       <c r="G8" s="2">
         <f t="shared" si="1"/>
-        <v>1.2418236472945892</v>
+        <v>1.6007565130260519</v>
       </c>
       <c r="H8" s="2">
         <v>0.38800000000000001</v>
       </c>
       <c r="I8" s="2">
         <f t="shared" si="0"/>
-        <v>0.85382364729458915</v>
+        <v>1.212756513026052</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.35">
@@ -668,18 +668,18 @@
         <v>5</v>
       </c>
       <c r="F9">
-        <v>0.64646793587174356</v>
+        <v>0.8334569138276553</v>
       </c>
       <c r="G9" s="2">
         <f t="shared" si="1"/>
-        <v>0.64646793587174356</v>
+        <v>0.8334569138276553</v>
       </c>
       <c r="H9" s="2">
         <v>0.38800000000000001</v>
       </c>
       <c r="I9" s="2">
         <f t="shared" si="0"/>
-        <v>0.25846793587174355</v>
+        <v>0.44545691382765529</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.35">
@@ -699,18 +699,18 @@
         <v>5</v>
       </c>
       <c r="F10">
-        <v>1.7039228456913826</v>
+        <v>2.0800501002004008</v>
       </c>
       <c r="G10" s="2">
         <f t="shared" si="1"/>
-        <v>1.7039228456913826</v>
+        <v>2.0800501002004008</v>
       </c>
       <c r="H10" s="2">
         <v>0.38800000000000001</v>
       </c>
       <c r="I10" s="2">
         <f t="shared" si="0"/>
-        <v>1.3159228456913827</v>
+        <v>1.6920501002004009</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.35">
@@ -730,18 +730,18 @@
         <v>5</v>
       </c>
       <c r="F11">
-        <v>0.64861723446893793</v>
+        <v>0.78402304609218443</v>
       </c>
       <c r="G11" s="2">
         <f t="shared" si="1"/>
-        <v>0.64861723446893793</v>
+        <v>0.78402304609218443</v>
       </c>
       <c r="H11" s="2">
         <v>0.38800000000000001</v>
       </c>
       <c r="I11" s="2">
         <f t="shared" si="0"/>
-        <v>0.26061723446893792</v>
+        <v>0.39602304609218442</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.35">
@@ -761,18 +761,18 @@
         <v>5</v>
       </c>
       <c r="F12">
-        <v>1.9446442885771544</v>
+        <v>2.5142084168336676</v>
       </c>
       <c r="G12" s="2">
         <f t="shared" si="1"/>
-        <v>1.9446442885771544</v>
+        <v>2.5142084168336676</v>
       </c>
       <c r="H12" s="2">
         <v>0.38800000000000001</v>
       </c>
       <c r="I12" s="2">
         <f t="shared" si="0"/>
-        <v>1.5566442885771545</v>
+        <v>2.1262084168336677</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.35">
@@ -792,18 +792,18 @@
         <v>5</v>
       </c>
       <c r="F13">
-        <v>0.63142284569138274</v>
+        <v>0.80551603206412814</v>
       </c>
       <c r="G13" s="2">
         <f t="shared" si="1"/>
-        <v>0.63142284569138274</v>
+        <v>0.80551603206412814</v>
       </c>
       <c r="H13" s="2">
         <v>0.38800000000000001</v>
       </c>
       <c r="I13" s="2">
         <f t="shared" si="0"/>
-        <v>0.24342284569138273</v>
+        <v>0.41751603206412813</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.35">
@@ -823,18 +823,18 @@
         <v>5</v>
       </c>
       <c r="F14">
-        <v>0.96456412825651305</v>
+        <v>1.3320941883767534</v>
       </c>
       <c r="G14" s="2">
         <f t="shared" si="1"/>
-        <v>0.96456412825651305</v>
+        <v>1.3320941883767534</v>
       </c>
       <c r="H14" s="2">
         <v>0.38800000000000001</v>
       </c>
       <c r="I14" s="2">
         <f t="shared" si="0"/>
-        <v>0.57656412825651304</v>
+        <v>0.94409418837675341</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.35">
@@ -854,18 +854,18 @@
         <v>5</v>
       </c>
       <c r="F15">
-        <v>0.82485971943887781</v>
+        <v>1.1794939879759518</v>
       </c>
       <c r="G15" s="2">
         <f t="shared" si="1"/>
-        <v>0.82485971943887781</v>
+        <v>1.1794939879759518</v>
       </c>
       <c r="H15" s="2">
         <v>0.38800000000000001</v>
       </c>
       <c r="I15" s="2">
         <f t="shared" si="0"/>
-        <v>0.4368597194388778</v>
+        <v>0.79149398797595183</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.35">
@@ -885,18 +885,18 @@
         <v>5</v>
       </c>
       <c r="F16">
-        <v>0.71954408817635274</v>
+        <v>0.94522044088176371</v>
       </c>
       <c r="G16" s="2">
         <f t="shared" si="1"/>
-        <v>0.71954408817635274</v>
+        <v>0.94522044088176371</v>
       </c>
       <c r="H16" s="2">
         <v>0.38800000000000001</v>
       </c>
       <c r="I16" s="2">
         <f t="shared" si="0"/>
-        <v>0.33154408817635272</v>
+        <v>0.5572204408817637</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.35">
@@ -916,18 +916,18 @@
         <v>5</v>
       </c>
       <c r="F17">
-        <v>1.2740631262525051</v>
+        <v>2.0134218436873743</v>
       </c>
       <c r="G17" s="2">
         <f t="shared" si="1"/>
-        <v>1.2740631262525051</v>
+        <v>2.0134218436873743</v>
       </c>
       <c r="H17" s="2">
         <v>0.38800000000000001</v>
       </c>
       <c r="I17" s="2">
         <f t="shared" si="0"/>
-        <v>0.88606312625250505</v>
+        <v>1.6254218436873744</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.35">
@@ -947,18 +947,18 @@
         <v>5</v>
       </c>
       <c r="F18">
-        <v>0.61637775551102203</v>
+        <v>0.80981462925851699</v>
       </c>
       <c r="G18" s="2">
         <f t="shared" si="1"/>
-        <v>0.61637775551102203</v>
+        <v>0.80981462925851699</v>
       </c>
       <c r="H18" s="2">
         <v>0.38800000000000001</v>
       </c>
       <c r="I18" s="2">
         <f t="shared" si="0"/>
-        <v>0.22837775551102202</v>
+        <v>0.42181462925851698</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.35">
@@ -978,18 +978,18 @@
         <v>5</v>
       </c>
       <c r="F19">
-        <v>0.78187374749498995</v>
+        <v>1.2224799599198397</v>
       </c>
       <c r="G19" s="2">
         <f t="shared" si="1"/>
-        <v>0.78187374749498995</v>
+        <v>1.2224799599198397</v>
       </c>
       <c r="H19" s="2">
         <v>0.38800000000000001</v>
       </c>
       <c r="I19" s="2">
         <f t="shared" si="0"/>
-        <v>0.39387374749498993</v>
+        <v>0.8344799599198397</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.35">
@@ -1009,60 +1009,60 @@
         <v>5</v>
       </c>
       <c r="F20">
-        <v>2.54</v>
+        <v>0.41434368737474953</v>
       </c>
       <c r="G20" s="2">
         <f t="shared" si="1"/>
-        <v>2.54</v>
+        <v>0.41434368737474953</v>
       </c>
       <c r="H20" s="2">
         <v>0.38800000000000001</v>
       </c>
       <c r="I20" s="2">
         <f t="shared" si="0"/>
-        <v>2.1520000000000001</v>
+        <v>2.6343687374749514E-2</v>
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A21" s="1">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C21" s="1">
-        <v>20</v>
+        <v>1</v>
       </c>
       <c r="D21" s="1" t="s">
         <v>7</v>
       </c>
       <c r="E21" s="1">
-        <v>5</v>
+        <v>50</v>
       </c>
       <c r="F21">
-        <v>2.54</v>
+        <v>1.0287675350701402</v>
       </c>
       <c r="G21" s="2">
         <f t="shared" si="1"/>
-        <v>2.54</v>
+        <v>1.0287675350701402</v>
       </c>
       <c r="H21" s="2">
-        <v>0.38800000000000001</v>
+        <v>0.46150000000000002</v>
       </c>
       <c r="I21" s="2">
         <f t="shared" si="0"/>
-        <v>2.1520000000000001</v>
+        <v>0.56726753507014016</v>
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A22" s="1">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B22" s="1" t="s">
         <v>6</v>
       </c>
       <c r="C22" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D22" s="1" t="s">
         <v>7</v>
@@ -1071,29 +1071,29 @@
         <v>50</v>
       </c>
       <c r="F22">
-        <v>0.81315631262525057</v>
+        <v>1.0882464929859719</v>
       </c>
       <c r="G22" s="2">
         <f t="shared" si="1"/>
-        <v>0.81315631262525057</v>
+        <v>1.0882464929859719</v>
       </c>
       <c r="H22" s="2">
         <v>0.46150000000000002</v>
       </c>
       <c r="I22" s="2">
         <f t="shared" si="0"/>
-        <v>0.35165631262525054</v>
+        <v>0.62674649298597185</v>
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A23" s="1">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B23" s="1" t="s">
         <v>6</v>
       </c>
       <c r="C23" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D23" s="1" t="s">
         <v>7</v>
@@ -1102,29 +1102,29 @@
         <v>50</v>
       </c>
       <c r="F23">
-        <v>0.80200400801603211</v>
+        <v>1.0510721442885771</v>
       </c>
       <c r="G23" s="2">
         <f t="shared" si="1"/>
-        <v>0.80200400801603211</v>
+        <v>1.0510721442885771</v>
       </c>
       <c r="H23" s="2">
         <v>0.46150000000000002</v>
       </c>
       <c r="I23" s="2">
         <f t="shared" si="0"/>
-        <v>0.34050400801603209</v>
+        <v>0.58957214428857707</v>
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A24" s="1">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B24" s="1" t="s">
         <v>6</v>
       </c>
       <c r="C24" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D24" s="1" t="s">
         <v>7</v>
@@ -1133,29 +1133,29 @@
         <v>50</v>
       </c>
       <c r="F24">
-        <v>0.84661322645290582</v>
+        <v>1.1402905811623247</v>
       </c>
       <c r="G24" s="2">
         <f t="shared" si="1"/>
-        <v>0.84661322645290582</v>
+        <v>1.1402905811623247</v>
       </c>
       <c r="H24" s="2">
         <v>0.46150000000000002</v>
       </c>
       <c r="I24" s="2">
         <f t="shared" si="0"/>
-        <v>0.3851132264529058</v>
+        <v>0.67879058116232471</v>
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A25" s="1">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B25" s="1" t="s">
         <v>6</v>
       </c>
       <c r="C25" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D25" s="1" t="s">
         <v>7</v>
@@ -1164,29 +1164,29 @@
         <v>50</v>
       </c>
       <c r="F25">
-        <v>0.87635270541082166</v>
+        <v>0.51204408817635272</v>
       </c>
       <c r="G25" s="2">
         <f t="shared" si="1"/>
-        <v>0.87635270541082166</v>
+        <v>0.51204408817635272</v>
       </c>
       <c r="H25" s="2">
         <v>0.46150000000000002</v>
       </c>
       <c r="I25" s="2">
         <f t="shared" si="0"/>
-        <v>0.41485270541082164</v>
+        <v>5.0544088176352697E-2</v>
       </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A26" s="1">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B26" s="1" t="s">
         <v>6</v>
       </c>
       <c r="C26" s="1">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D26" s="1" t="s">
         <v>7</v>
@@ -1195,29 +1195,29 @@
         <v>50</v>
       </c>
       <c r="F26">
-        <v>4.17</v>
+        <v>0.79828657314629237</v>
       </c>
       <c r="G26" s="2">
         <f t="shared" si="1"/>
-        <v>4.17</v>
+        <v>0.79828657314629237</v>
       </c>
       <c r="H26" s="2">
         <v>0.46150000000000002</v>
       </c>
       <c r="I26" s="2">
         <f t="shared" si="0"/>
-        <v>3.7084999999999999</v>
+        <v>0.33678657314629235</v>
       </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A27" s="1">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B27" s="1" t="s">
         <v>6</v>
       </c>
       <c r="C27" s="1">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D27" s="1" t="s">
         <v>7</v>
@@ -1226,29 +1226,29 @@
         <v>50</v>
       </c>
       <c r="F27">
-        <v>0.65330661322645289</v>
+        <v>0.48230460921843687</v>
       </c>
       <c r="G27" s="2">
         <f t="shared" si="1"/>
-        <v>0.65330661322645289</v>
+        <v>0.48230460921843687</v>
       </c>
       <c r="H27" s="2">
         <v>0.46150000000000002</v>
       </c>
       <c r="I27" s="2">
         <f t="shared" si="0"/>
-        <v>0.19180661322645287</v>
+        <v>2.0804609218436854E-2</v>
       </c>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A28" s="1">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B28" s="1" t="s">
         <v>6</v>
       </c>
       <c r="C28" s="1">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D28" s="1" t="s">
         <v>7</v>
@@ -1257,29 +1257,29 @@
         <v>50</v>
       </c>
       <c r="F28">
-        <v>4.17</v>
+        <v>1.4637074148296594</v>
       </c>
       <c r="G28" s="2">
         <f t="shared" si="1"/>
-        <v>4.17</v>
+        <v>1.4637074148296594</v>
       </c>
       <c r="H28" s="2">
         <v>0.46150000000000002</v>
       </c>
       <c r="I28" s="2">
         <f t="shared" si="0"/>
-        <v>3.7084999999999999</v>
+        <v>1.0022074148296594</v>
       </c>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A29" s="1">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B29" s="1" t="s">
         <v>6</v>
       </c>
       <c r="C29" s="1">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D29" s="1" t="s">
         <v>7</v>
@@ -1288,29 +1288,29 @@
         <v>50</v>
       </c>
       <c r="F29">
-        <v>1.0696593186372745</v>
+        <v>1.8077250334001338</v>
       </c>
       <c r="G29" s="2">
         <f t="shared" si="1"/>
-        <v>1.0696593186372745</v>
+        <v>1.8077250334001338</v>
       </c>
       <c r="H29" s="2">
         <v>0.46150000000000002</v>
       </c>
       <c r="I29" s="2">
         <f t="shared" si="0"/>
-        <v>0.60815931863727446</v>
+        <v>1.3462250334001338</v>
       </c>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A30" s="1">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B30" s="1" t="s">
         <v>6</v>
       </c>
       <c r="C30" s="1">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D30" s="1" t="s">
         <v>7</v>
@@ -1319,29 +1319,29 @@
         <v>50</v>
       </c>
       <c r="F30">
-        <v>3.6020585615675791</v>
+        <v>1.1328557114228455</v>
       </c>
       <c r="G30" s="2">
         <f t="shared" si="1"/>
-        <v>3.6020585615675791</v>
+        <v>1.1328557114228455</v>
       </c>
       <c r="H30" s="2">
         <v>0.46150000000000002</v>
       </c>
       <c r="I30" s="2">
         <f t="shared" si="0"/>
-        <v>3.1405585615675791</v>
+        <v>0.67135571142284545</v>
       </c>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A31" s="1">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C31" s="1">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D31" s="1" t="s">
         <v>7</v>
@@ -1350,29 +1350,29 @@
         <v>50</v>
       </c>
       <c r="F31">
-        <v>0.84661322645290582</v>
+        <v>1.0473547094188376</v>
       </c>
       <c r="G31" s="2">
         <f t="shared" si="1"/>
-        <v>0.84661322645290582</v>
+        <v>1.0473547094188376</v>
       </c>
       <c r="H31" s="2">
         <v>0.46150000000000002</v>
       </c>
       <c r="I31" s="2">
         <f t="shared" si="0"/>
-        <v>0.3851132264529058</v>
+        <v>0.58585470941883755</v>
       </c>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A32" s="1">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B32" s="1" t="s">
         <v>8</v>
       </c>
       <c r="C32" s="1">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D32" s="1" t="s">
         <v>7</v>
@@ -1381,29 +1381,29 @@
         <v>50</v>
       </c>
       <c r="F32">
-        <v>0.79085170340681354</v>
+        <v>0.95070140280561133</v>
       </c>
       <c r="G32" s="2">
         <f t="shared" si="1"/>
-        <v>0.79085170340681354</v>
+        <v>0.95070140280561133</v>
       </c>
       <c r="H32" s="2">
         <v>0.46150000000000002</v>
       </c>
       <c r="I32" s="2">
         <f t="shared" si="0"/>
-        <v>0.32935170340681352</v>
+        <v>0.48920140280561131</v>
       </c>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A33" s="1">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B33" s="1" t="s">
         <v>8</v>
       </c>
       <c r="C33" s="1">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D33" s="1" t="s">
         <v>7</v>
@@ -1412,29 +1412,29 @@
         <v>50</v>
       </c>
       <c r="F33">
-        <v>0.71278557114228458</v>
+        <v>0.51204408817635272</v>
       </c>
       <c r="G33" s="2">
         <f t="shared" si="1"/>
-        <v>0.71278557114228458</v>
+        <v>0.51204408817635272</v>
       </c>
       <c r="H33" s="2">
         <v>0.46150000000000002</v>
       </c>
       <c r="I33" s="2">
         <f t="shared" si="0"/>
-        <v>0.25128557114228456</v>
+        <v>5.0544088176352697E-2</v>
       </c>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A34" s="1">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B34" s="1" t="s">
         <v>8</v>
       </c>
       <c r="C34" s="1">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D34" s="1" t="s">
         <v>7</v>
@@ -1443,29 +1443,29 @@
         <v>50</v>
       </c>
       <c r="F34">
-        <v>4.17</v>
+        <v>1.1700300601202402</v>
       </c>
       <c r="G34" s="2">
         <f t="shared" si="1"/>
-        <v>4.17</v>
+        <v>1.1700300601202402</v>
       </c>
       <c r="H34" s="2">
         <v>0.46150000000000002</v>
       </c>
       <c r="I34" s="2">
         <f t="shared" si="0"/>
-        <v>3.7084999999999999</v>
+        <v>0.70853006012024022</v>
       </c>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A35" s="1">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B35" s="1" t="s">
         <v>8</v>
       </c>
       <c r="C35" s="1">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D35" s="1" t="s">
         <v>7</v>
@@ -1474,29 +1474,29 @@
         <v>50</v>
       </c>
       <c r="F35">
-        <v>0.83174348697394784</v>
+        <v>0.98787575150300611</v>
       </c>
       <c r="G35" s="2">
         <f t="shared" si="1"/>
-        <v>0.83174348697394784</v>
+        <v>0.98787575150300611</v>
       </c>
       <c r="H35" s="2">
         <v>0.46150000000000002</v>
       </c>
       <c r="I35" s="2">
         <f t="shared" si="0"/>
-        <v>0.37024348697394782</v>
+        <v>0.52637575150300608</v>
       </c>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A36" s="1">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B36" s="1" t="s">
         <v>8</v>
       </c>
       <c r="C36" s="1">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D36" s="1" t="s">
         <v>7</v>
@@ -1505,29 +1505,29 @@
         <v>50</v>
       </c>
       <c r="F36">
-        <v>0.76111222444889781</v>
+        <v>1.0324849699398797</v>
       </c>
       <c r="G36" s="2">
         <f t="shared" si="1"/>
-        <v>0.76111222444889781</v>
+        <v>1.0324849699398797</v>
       </c>
       <c r="H36" s="2">
         <v>0.46150000000000002</v>
       </c>
       <c r="I36" s="2">
         <f t="shared" si="0"/>
-        <v>0.29961222444889779</v>
+        <v>0.57098496993987968</v>
       </c>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A37" s="1">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B37" s="1" t="s">
         <v>8</v>
       </c>
       <c r="C37" s="1">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D37" s="1" t="s">
         <v>7</v>
@@ -1536,29 +1536,29 @@
         <v>50</v>
       </c>
       <c r="F37">
-        <v>0.76854709418837686</v>
+        <v>1.2964228456913827</v>
       </c>
       <c r="G37" s="2">
         <f t="shared" si="1"/>
-        <v>0.76854709418837686</v>
+        <v>1.2964228456913827</v>
       </c>
       <c r="H37" s="2">
         <v>0.46150000000000002</v>
       </c>
       <c r="I37" s="2">
         <f t="shared" si="0"/>
-        <v>0.30704709418837683</v>
+        <v>0.83492284569138264</v>
       </c>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A38" s="1">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B38" s="1" t="s">
         <v>8</v>
       </c>
       <c r="C38" s="1">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D38" s="1" t="s">
         <v>7</v>
@@ -1567,29 +1567,29 @@
         <v>50</v>
       </c>
       <c r="F38">
-        <v>0.96185370741482956</v>
+        <v>2.404218436873748</v>
       </c>
       <c r="G38" s="2">
         <f t="shared" si="1"/>
-        <v>0.96185370741482956</v>
+        <v>2.404218436873748</v>
       </c>
       <c r="H38" s="2">
         <v>0.46150000000000002</v>
       </c>
       <c r="I38" s="2">
         <f t="shared" si="0"/>
-        <v>0.50035370741482954</v>
+        <v>1.942718436873748</v>
       </c>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A39" s="1">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B39" s="1" t="s">
         <v>8</v>
       </c>
       <c r="C39" s="1">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D39" s="1" t="s">
         <v>7</v>
@@ -1598,91 +1598,91 @@
         <v>50</v>
       </c>
       <c r="F39">
-        <v>1.5975350701402804</v>
+        <v>0.48230460921843687</v>
       </c>
       <c r="G39" s="2">
         <f t="shared" si="1"/>
-        <v>1.5975350701402804</v>
+        <v>0.48230460921843687</v>
       </c>
       <c r="H39" s="2">
         <v>0.46150000000000002</v>
       </c>
       <c r="I39" s="2">
         <f t="shared" si="0"/>
-        <v>1.1360350701402804</v>
+        <v>2.0804609218436854E-2</v>
       </c>
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A40" s="1">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C40" s="1">
-        <v>19</v>
+        <v>1</v>
       </c>
       <c r="D40" s="1" t="s">
         <v>7</v>
       </c>
       <c r="E40" s="1">
-        <v>50</v>
+        <v>500</v>
       </c>
       <c r="F40">
-        <v>4.17</v>
+        <v>1.5476252505010017</v>
       </c>
       <c r="G40" s="2">
         <f t="shared" si="1"/>
-        <v>4.17</v>
+        <v>1.5476252505010017</v>
       </c>
       <c r="H40" s="2">
-        <v>0.46150000000000002</v>
+        <v>0.75150000000000006</v>
       </c>
       <c r="I40" s="2">
         <f t="shared" si="0"/>
-        <v>3.7084999999999999</v>
+        <v>0.79612525050100169</v>
       </c>
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A41" s="1">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C41" s="1">
-        <v>20</v>
+        <v>2</v>
       </c>
       <c r="D41" s="1" t="s">
         <v>7</v>
       </c>
       <c r="E41" s="1">
-        <v>50</v>
+        <v>500</v>
       </c>
       <c r="F41">
-        <v>4.17</v>
+        <v>1.2101102204408818</v>
       </c>
       <c r="G41" s="2">
         <f t="shared" si="1"/>
-        <v>4.17</v>
+        <v>1.2101102204408818</v>
       </c>
       <c r="H41" s="2">
-        <v>0.46150000000000002</v>
+        <v>0.75150000000000006</v>
       </c>
       <c r="I41" s="2">
         <f t="shared" si="0"/>
-        <v>3.7084999999999999</v>
+        <v>0.45861022044088173</v>
       </c>
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A42" s="1">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B42" s="1" t="s">
         <v>6</v>
       </c>
       <c r="C42" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D42" s="1" t="s">
         <v>7</v>
@@ -1691,29 +1691,29 @@
         <v>500</v>
       </c>
       <c r="F42">
-        <v>1.2462725450901804</v>
+        <v>2.1061322645290574</v>
       </c>
       <c r="G42" s="2">
         <f t="shared" si="1"/>
-        <v>1.2462725450901804</v>
+        <v>2.1061322645290574</v>
       </c>
       <c r="H42" s="2">
         <v>0.75150000000000006</v>
       </c>
       <c r="I42" s="2">
         <f t="shared" si="0"/>
-        <v>0.49477254509018032</v>
+        <v>1.3546322645290574</v>
       </c>
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A43" s="1">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B43" s="1" t="s">
         <v>6</v>
       </c>
       <c r="C43" s="1">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D43" s="1" t="s">
         <v>7</v>
@@ -1722,29 +1722,29 @@
         <v>500</v>
       </c>
       <c r="F43">
-        <v>0.91679358717434867</v>
+        <v>0.79625250501001998</v>
       </c>
       <c r="G43" s="2">
         <f t="shared" si="1"/>
-        <v>0.91679358717434867</v>
+        <v>0.79625250501001998</v>
       </c>
       <c r="H43" s="2">
         <v>0.75150000000000006</v>
       </c>
       <c r="I43" s="2">
         <f t="shared" si="0"/>
-        <v>0.16529358717434861</v>
+        <v>4.4752505010019927E-2</v>
       </c>
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A44" s="1">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B44" s="1" t="s">
         <v>6</v>
       </c>
       <c r="C44" s="1">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D44" s="1" t="s">
         <v>7</v>
@@ -1753,29 +1753,29 @@
         <v>500</v>
       </c>
       <c r="F44">
-        <v>1.2663627254509018</v>
+        <v>0.79625250501001998</v>
       </c>
       <c r="G44" s="2">
         <f t="shared" si="1"/>
-        <v>1.2663627254509018</v>
+        <v>0.79625250501001998</v>
       </c>
       <c r="H44" s="2">
         <v>0.75150000000000006</v>
       </c>
       <c r="I44" s="2">
         <f t="shared" si="0"/>
-        <v>0.51486272545090173</v>
+        <v>4.4752505010019927E-2</v>
       </c>
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A45" s="1">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B45" s="1" t="s">
         <v>6</v>
       </c>
       <c r="C45" s="1">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D45" s="1" t="s">
         <v>7</v>
@@ -1784,29 +1784,29 @@
         <v>500</v>
       </c>
       <c r="F45">
-        <v>0.77214428857715434</v>
+        <v>0.7600901803607214</v>
       </c>
       <c r="G45" s="2">
         <f t="shared" si="1"/>
-        <v>0.77214428857715434</v>
+        <v>0.7600901803607214</v>
       </c>
       <c r="H45" s="2">
         <v>0.75150000000000006</v>
       </c>
       <c r="I45" s="2">
         <f t="shared" si="0"/>
-        <v>2.0644288577154279E-2</v>
+        <v>8.5901803607213445E-3</v>
       </c>
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A46" s="1">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B46" s="1" t="s">
         <v>6</v>
       </c>
       <c r="C46" s="1">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="D46" s="1" t="s">
         <v>7</v>
@@ -1815,29 +1815,29 @@
         <v>500</v>
       </c>
       <c r="F46">
-        <v>0.77214428857715434</v>
+        <v>0.77616232464929857</v>
       </c>
       <c r="G46" s="2">
         <f t="shared" si="1"/>
-        <v>0.77214428857715434</v>
+        <v>0.77616232464929857</v>
       </c>
       <c r="H46" s="2">
         <v>0.75150000000000006</v>
       </c>
       <c r="I46" s="2">
         <f t="shared" si="0"/>
-        <v>2.0644288577154279E-2</v>
+        <v>2.4662324649298517E-2</v>
       </c>
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A47" s="1">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B47" s="1" t="s">
         <v>6</v>
       </c>
       <c r="C47" s="1">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D47" s="1" t="s">
         <v>7</v>
@@ -1846,29 +1846,29 @@
         <v>500</v>
       </c>
       <c r="F47">
-        <v>0.74803607214428858</v>
+        <v>3.2753807615230444</v>
       </c>
       <c r="G47" s="2">
         <f t="shared" si="1"/>
-        <v>0.74803607214428858</v>
+        <v>3.2753807615230444</v>
       </c>
       <c r="H47" s="2">
         <v>0.75150000000000006</v>
       </c>
       <c r="I47" s="2">
         <f t="shared" si="0"/>
-        <v>-3.4639278557114794E-3</v>
+        <v>2.5238807615230443</v>
       </c>
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A48" s="1">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B48" s="1" t="s">
         <v>6</v>
       </c>
       <c r="C48" s="1">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D48" s="1" t="s">
         <v>7</v>
@@ -1877,29 +1877,29 @@
         <v>500</v>
       </c>
       <c r="F48">
-        <v>4.75</v>
+        <v>1.5837875751503006</v>
       </c>
       <c r="G48" s="2">
         <f t="shared" si="1"/>
-        <v>4.75</v>
+        <v>1.5837875751503006</v>
       </c>
       <c r="H48" s="2">
         <v>0.75150000000000006</v>
       </c>
       <c r="I48" s="2">
         <f t="shared" si="0"/>
-        <v>3.9984999999999999</v>
+        <v>0.8322875751503005</v>
       </c>
     </row>
     <row r="49" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A49" s="1">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B49" s="1" t="s">
         <v>6</v>
       </c>
       <c r="C49" s="1">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D49" s="1" t="s">
         <v>7</v>
@@ -1908,29 +1908,29 @@
         <v>500</v>
       </c>
       <c r="F49">
-        <v>1.4994088176352702</v>
+        <v>1.3708316633266531</v>
       </c>
       <c r="G49" s="2">
         <f t="shared" si="1"/>
-        <v>1.4994088176352702</v>
+        <v>1.3708316633266531</v>
       </c>
       <c r="H49" s="2">
         <v>0.75150000000000006</v>
       </c>
       <c r="I49" s="2">
         <f t="shared" si="0"/>
-        <v>0.74790881763527017</v>
+        <v>0.61933166332665301</v>
       </c>
     </row>
     <row r="50" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A50" s="1">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C50" s="1">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D50" s="1" t="s">
         <v>7</v>
@@ -1939,29 +1939,29 @@
         <v>500</v>
       </c>
       <c r="F50">
-        <v>1.2181462925851705</v>
+        <v>1.6962925851703405</v>
       </c>
       <c r="G50" s="2">
         <f t="shared" si="1"/>
-        <v>1.2181462925851705</v>
+        <v>1.6962925851703405</v>
       </c>
       <c r="H50" s="2">
         <v>0.75150000000000006</v>
       </c>
       <c r="I50" s="2">
         <f t="shared" si="0"/>
-        <v>0.46664629258517043</v>
+        <v>0.94479258517034048</v>
       </c>
     </row>
     <row r="51" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A51" s="1">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C51" s="1">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="D51" s="1" t="s">
         <v>7</v>
@@ -1970,29 +1970,29 @@
         <v>500</v>
       </c>
       <c r="F51">
-        <v>1.1016232464929858</v>
+        <v>1.535571142284569</v>
       </c>
       <c r="G51" s="2">
         <f t="shared" si="1"/>
-        <v>1.1016232464929858</v>
+        <v>1.535571142284569</v>
       </c>
       <c r="H51" s="2">
         <v>0.75150000000000006</v>
       </c>
       <c r="I51" s="2">
         <f t="shared" si="0"/>
-        <v>0.35012324649298576</v>
+        <v>0.78407114228456898</v>
       </c>
     </row>
     <row r="52" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A52" s="1">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B52" s="1" t="s">
         <v>8</v>
       </c>
       <c r="C52" s="1">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D52" s="1" t="s">
         <v>7</v>
@@ -2001,29 +2001,29 @@
         <v>500</v>
       </c>
       <c r="F52">
-        <v>1.3306513026052105</v>
+        <v>0.80027054108216422</v>
       </c>
       <c r="G52" s="2">
         <f t="shared" si="1"/>
-        <v>1.3306513026052105</v>
+        <v>0.80027054108216422</v>
       </c>
       <c r="H52" s="2">
         <v>0.75150000000000006</v>
       </c>
       <c r="I52" s="2">
         <f t="shared" si="0"/>
-        <v>0.57915130260521042</v>
+        <v>4.8770541082164165E-2</v>
       </c>
     </row>
     <row r="53" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A53" s="1">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B53" s="1" t="s">
         <v>8</v>
       </c>
       <c r="C53" s="1">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D53" s="1" t="s">
         <v>7</v>
@@ -2032,29 +2032,29 @@
         <v>500</v>
       </c>
       <c r="F53">
-        <v>1.2382364729458917</v>
+        <v>1.3346693386773547</v>
       </c>
       <c r="G53" s="2">
         <f t="shared" si="1"/>
-        <v>1.2382364729458917</v>
+        <v>1.3346693386773547</v>
       </c>
       <c r="H53" s="2">
         <v>0.75150000000000006</v>
       </c>
       <c r="I53" s="2">
         <f t="shared" si="0"/>
-        <v>0.48673647294589162</v>
+        <v>0.58316933867735465</v>
       </c>
     </row>
     <row r="54" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A54" s="1">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B54" s="1" t="s">
         <v>8</v>
       </c>
       <c r="C54" s="1">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D54" s="1" t="s">
         <v>7</v>
@@ -2063,29 +2063,29 @@
         <v>500</v>
       </c>
       <c r="F54">
-        <v>0.78018036072144281</v>
+        <v>1.6400400801603205</v>
       </c>
       <c r="G54" s="2">
         <f t="shared" si="1"/>
-        <v>0.78018036072144281</v>
+        <v>1.6400400801603205</v>
       </c>
       <c r="H54" s="2">
         <v>0.75150000000000006</v>
       </c>
       <c r="I54" s="2">
         <f t="shared" si="0"/>
-        <v>2.8680360721442755E-2</v>
+        <v>0.88854008016032049</v>
       </c>
     </row>
     <row r="55" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A55" s="1">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B55" s="1" t="s">
         <v>8</v>
       </c>
       <c r="C55" s="1">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D55" s="1" t="s">
         <v>7</v>
@@ -2094,29 +2094,29 @@
         <v>500</v>
       </c>
       <c r="F55">
-        <v>1.0574248496993985</v>
+        <v>1.7686172344689377</v>
       </c>
       <c r="G55" s="2">
         <f t="shared" si="1"/>
-        <v>1.0574248496993985</v>
+        <v>1.7686172344689377</v>
       </c>
       <c r="H55" s="2">
         <v>0.75150000000000006</v>
       </c>
       <c r="I55" s="2">
         <f t="shared" si="0"/>
-        <v>0.30592484969939848</v>
+        <v>1.0171172344689376</v>
       </c>
     </row>
     <row r="56" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A56" s="1">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B56" s="1" t="s">
         <v>8</v>
       </c>
       <c r="C56" s="1">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D56" s="1" t="s">
         <v>7</v>
@@ -2125,29 +2125,29 @@
         <v>500</v>
       </c>
       <c r="F56">
-        <v>1.3708316633266533</v>
+        <v>1.5315531062124246</v>
       </c>
       <c r="G56" s="2">
         <f t="shared" si="1"/>
-        <v>1.3708316633266533</v>
+        <v>1.5315531062124246</v>
       </c>
       <c r="H56" s="2">
         <v>0.75150000000000006</v>
       </c>
       <c r="I56" s="2">
         <f t="shared" si="0"/>
-        <v>0.61933166332665324</v>
+        <v>0.78005310621242452</v>
       </c>
     </row>
     <row r="57" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A57" s="1">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B57" s="1" t="s">
         <v>8</v>
       </c>
       <c r="C57" s="1">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="D57" s="1" t="s">
         <v>7</v>
@@ -2156,29 +2156,29 @@
         <v>500</v>
       </c>
       <c r="F57">
-        <v>1.3226152304609218</v>
+        <v>1.3065430861723448</v>
       </c>
       <c r="G57" s="2">
         <f t="shared" si="1"/>
-        <v>1.3226152304609218</v>
+        <v>1.3065430861723448</v>
       </c>
       <c r="H57" s="2">
         <v>0.75150000000000006</v>
       </c>
       <c r="I57" s="2">
         <f t="shared" si="0"/>
-        <v>0.57111523046092172</v>
+        <v>0.55504308617234477</v>
       </c>
     </row>
     <row r="58" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A58" s="1">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B58" s="1" t="s">
         <v>8</v>
       </c>
       <c r="C58" s="1">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="D58" s="1" t="s">
         <v>7</v>
@@ -2187,122 +2187,122 @@
         <v>500</v>
       </c>
       <c r="F58">
-        <v>1.2060921843687371</v>
+        <v>0.77616232464929857</v>
       </c>
       <c r="G58" s="2">
         <f t="shared" si="1"/>
-        <v>1.2060921843687371</v>
+        <v>0.77616232464929857</v>
       </c>
       <c r="H58" s="2">
         <v>0.75150000000000006</v>
       </c>
       <c r="I58" s="2">
         <f t="shared" si="0"/>
-        <v>0.45459218436873705</v>
+        <v>2.4662324649298517E-2</v>
       </c>
     </row>
     <row r="59" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A59" s="1">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C59" s="1">
-        <v>18</v>
+        <v>1</v>
       </c>
       <c r="D59" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="E59" s="1">
-        <v>500</v>
+        <v>5</v>
       </c>
       <c r="F59">
-        <v>1.0252805611222444</v>
+        <v>2.1749298597194389</v>
       </c>
       <c r="G59" s="2">
         <f t="shared" si="1"/>
-        <v>1.0252805611222444</v>
-      </c>
-      <c r="H59" s="2">
-        <v>0.75150000000000006</v>
+        <v>2.1749298597194389</v>
+      </c>
+      <c r="H59" s="1">
+        <v>0.79</v>
       </c>
       <c r="I59" s="2">
         <f t="shared" si="0"/>
-        <v>0.27378056112224436</v>
+        <v>1.3849298597194388</v>
       </c>
     </row>
     <row r="60" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A60" s="1">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C60" s="1">
-        <v>19</v>
+        <v>2</v>
       </c>
       <c r="D60" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="E60" s="1">
-        <v>500</v>
+        <v>5</v>
       </c>
       <c r="F60">
-        <v>4.75</v>
+        <v>1.5446092184368736</v>
       </c>
       <c r="G60" s="2">
         <f t="shared" si="1"/>
-        <v>4.75</v>
-      </c>
-      <c r="H60" s="2">
-        <v>0.75150000000000006</v>
+        <v>1.5446092184368736</v>
+      </c>
+      <c r="H60" s="1">
+        <v>0.79</v>
       </c>
       <c r="I60" s="2">
         <f t="shared" si="0"/>
-        <v>3.9984999999999999</v>
+        <v>0.75460921843687356</v>
       </c>
     </row>
     <row r="61" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A61" s="1">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C61" s="1">
-        <v>20</v>
+        <v>3</v>
       </c>
       <c r="D61" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="E61" s="1">
-        <v>500</v>
+        <v>5</v>
       </c>
       <c r="F61">
-        <v>1.8610320641282563</v>
+        <v>1.5090981963927854</v>
       </c>
       <c r="G61" s="2">
         <f t="shared" si="1"/>
-        <v>1.8610320641282563</v>
-      </c>
-      <c r="H61" s="2">
-        <v>0.75150000000000006</v>
+        <v>1.5090981963927854</v>
+      </c>
+      <c r="H61" s="1">
+        <v>0.79</v>
       </c>
       <c r="I61" s="2">
         <f t="shared" si="0"/>
-        <v>1.1095320641282562</v>
+        <v>0.71909819639278538</v>
       </c>
     </row>
     <row r="62" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A62" s="1">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="B62" s="1" t="s">
         <v>6</v>
       </c>
       <c r="C62" s="1">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D62" s="1" t="s">
         <v>9</v>
@@ -2311,29 +2311,29 @@
         <v>5</v>
       </c>
       <c r="F62">
-        <v>1.606753507014028</v>
+        <v>0.96755511022044094</v>
       </c>
       <c r="G62" s="2">
         <f t="shared" si="1"/>
-        <v>1.606753507014028</v>
+        <v>0.96755511022044094</v>
       </c>
       <c r="H62" s="1">
         <v>0.79</v>
       </c>
       <c r="I62" s="2">
         <f t="shared" si="0"/>
-        <v>0.81675350701402794</v>
+        <v>0.1775551102204409</v>
       </c>
     </row>
     <row r="63" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A63" s="1">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="B63" s="1" t="s">
         <v>6</v>
       </c>
       <c r="C63" s="1">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D63" s="1" t="s">
         <v>9</v>
@@ -2342,29 +2342,29 @@
         <v>5</v>
       </c>
       <c r="F63">
-        <v>1.216132264529058</v>
+        <v>1.8375751503006013</v>
       </c>
       <c r="G63" s="2">
         <f t="shared" si="1"/>
-        <v>1.216132264529058</v>
+        <v>1.8375751503006013</v>
       </c>
       <c r="H63" s="1">
         <v>0.79</v>
       </c>
       <c r="I63" s="2">
         <f t="shared" si="0"/>
-        <v>0.42613226452905795</v>
+        <v>1.0475751503006012</v>
       </c>
     </row>
     <row r="64" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A64" s="1">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="B64" s="1" t="s">
         <v>6</v>
       </c>
       <c r="C64" s="1">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="D64" s="1" t="s">
         <v>9</v>
@@ -2373,29 +2373,29 @@
         <v>5</v>
       </c>
       <c r="F64">
-        <v>1.198376753507014</v>
+        <v>0.95867735470941895</v>
       </c>
       <c r="G64" s="2">
         <f t="shared" si="1"/>
-        <v>1.198376753507014</v>
+        <v>0.95867735470941895</v>
       </c>
       <c r="H64" s="1">
         <v>0.79</v>
       </c>
       <c r="I64" s="2">
-        <f t="shared" si="0"/>
-        <v>0.40837675350701397</v>
+        <f t="shared" ref="I64:I115" si="2">G64-H64</f>
+        <v>0.16867735470941891</v>
       </c>
     </row>
     <row r="65" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A65" s="1">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="B65" s="1" t="s">
         <v>6</v>
       </c>
       <c r="C65" s="1">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="D65" s="1" t="s">
         <v>9</v>
@@ -2404,29 +2404,29 @@
         <v>5</v>
       </c>
       <c r="F65">
-        <v>0.89653306613226458</v>
+        <v>1.0119438877755511</v>
       </c>
       <c r="G65" s="2">
-        <f t="shared" si="1"/>
-        <v>0.89653306613226458</v>
+        <f t="shared" ref="G65:G115" si="3">F65</f>
+        <v>1.0119438877755511</v>
       </c>
       <c r="H65" s="1">
         <v>0.79</v>
       </c>
       <c r="I65" s="2">
-        <f t="shared" si="0"/>
-        <v>0.10653306613226454</v>
+        <f t="shared" si="2"/>
+        <v>0.22194388777555107</v>
       </c>
     </row>
     <row r="66" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A66" s="1">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="B66" s="1" t="s">
         <v>6</v>
       </c>
       <c r="C66" s="1">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="D66" s="1" t="s">
         <v>9</v>
@@ -2435,29 +2435,29 @@
         <v>5</v>
       </c>
       <c r="F66">
-        <v>1.4291983967935871</v>
+        <v>1.9174749498997998</v>
       </c>
       <c r="G66" s="2">
-        <f t="shared" si="1"/>
-        <v>1.4291983967935871</v>
+        <f t="shared" si="3"/>
+        <v>1.9174749498997998</v>
       </c>
       <c r="H66" s="1">
         <v>0.79</v>
       </c>
       <c r="I66" s="2">
-        <f t="shared" si="0"/>
-        <v>0.63919839679358703</v>
+        <f t="shared" si="2"/>
+        <v>1.1274749498997998</v>
       </c>
     </row>
     <row r="67" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A67" s="1">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="B67" s="1" t="s">
         <v>6</v>
       </c>
       <c r="C67" s="1">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="D67" s="1" t="s">
         <v>9</v>
@@ -2466,29 +2466,29 @@
         <v>5</v>
       </c>
       <c r="F67">
-        <v>0.87877755511022049</v>
+        <v>8.5580360721442865</v>
       </c>
       <c r="G67" s="2">
-        <f t="shared" si="1"/>
-        <v>0.87877755511022049</v>
+        <f t="shared" si="3"/>
+        <v>8.5580360721442865</v>
       </c>
       <c r="H67" s="1">
         <v>0.79</v>
       </c>
       <c r="I67" s="2">
-        <f t="shared" ref="I67:I121" si="2">G67-H67</f>
-        <v>8.8777555110220452E-2</v>
+        <f t="shared" si="2"/>
+        <v>7.7680360721442865</v>
       </c>
     </row>
     <row r="68" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A68" s="1">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="B68" s="1" t="s">
         <v>6</v>
       </c>
       <c r="C68" s="1">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="D68" s="1" t="s">
         <v>9</v>
@@ -2497,29 +2497,29 @@
         <v>5</v>
       </c>
       <c r="F68">
-        <v>9.65</v>
+        <v>6.1508491056186445</v>
       </c>
       <c r="G68" s="2">
-        <f t="shared" ref="G68:G121" si="3">F68</f>
-        <v>9.65</v>
+        <f t="shared" si="3"/>
+        <v>6.1508491056186445</v>
       </c>
       <c r="H68" s="1">
         <v>0.79</v>
       </c>
       <c r="I68" s="2">
         <f t="shared" si="2"/>
-        <v>8.86</v>
+        <v>5.3608491056186445</v>
       </c>
     </row>
     <row r="69" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A69" s="1">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C69" s="1">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="D69" s="1" t="s">
         <v>9</v>
@@ -2528,29 +2528,29 @@
         <v>5</v>
       </c>
       <c r="F69">
-        <v>1.4558316633266533</v>
+        <v>2.4412625250501008</v>
       </c>
       <c r="G69" s="2">
         <f t="shared" si="3"/>
-        <v>1.4558316633266533</v>
+        <v>2.4412625250501008</v>
       </c>
       <c r="H69" s="1">
         <v>0.79</v>
       </c>
       <c r="I69" s="2">
         <f t="shared" si="2"/>
-        <v>0.66583166332665322</v>
+        <v>1.6512625250501007</v>
       </c>
     </row>
     <row r="70" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A70" s="1">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C70" s="1">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D70" s="1" t="s">
         <v>9</v>
@@ -2559,29 +2559,29 @@
         <v>5</v>
       </c>
       <c r="F70">
-        <v>6.1344088176352711</v>
+        <v>1.9174749498997996</v>
       </c>
       <c r="G70" s="2">
         <f t="shared" si="3"/>
-        <v>6.1344088176352711</v>
+        <v>1.9174749498997996</v>
       </c>
       <c r="H70" s="1">
         <v>0.79</v>
       </c>
       <c r="I70" s="2">
         <f t="shared" si="2"/>
-        <v>5.3444088176352711</v>
+        <v>1.1274749498997996</v>
       </c>
     </row>
     <row r="71" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A71" s="1">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C71" s="1">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="D71" s="1" t="s">
         <v>9</v>
@@ -2590,29 +2590,29 @@
         <v>5</v>
       </c>
       <c r="F71">
-        <v>1.5978757515030058</v>
+        <v>1.7044088176352703</v>
       </c>
       <c r="G71" s="2">
         <f t="shared" si="3"/>
-        <v>1.5978757515030058</v>
+        <v>1.7044088176352703</v>
       </c>
       <c r="H71" s="1">
         <v>0.79</v>
       </c>
       <c r="I71" s="2">
         <f t="shared" si="2"/>
-        <v>0.80787575150300572</v>
+        <v>0.91440881763527027</v>
       </c>
     </row>
     <row r="72" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A72" s="1">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="B72" s="1" t="s">
         <v>8</v>
       </c>
       <c r="C72" s="1">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="D72" s="1" t="s">
         <v>9</v>
@@ -2621,29 +2621,29 @@
         <v>5</v>
       </c>
       <c r="F72">
-        <v>1.7487975951903807</v>
+        <v>2.8496392785571132</v>
       </c>
       <c r="G72" s="2">
         <f t="shared" si="3"/>
-        <v>1.7487975951903807</v>
+        <v>2.8496392785571132</v>
       </c>
       <c r="H72" s="1">
         <v>0.79</v>
       </c>
       <c r="I72" s="2">
         <f t="shared" si="2"/>
-        <v>0.95879759519038066</v>
+        <v>2.0596392785571132</v>
       </c>
     </row>
     <row r="73" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A73" s="1">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="B73" s="1" t="s">
         <v>8</v>
       </c>
       <c r="C73" s="1">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="D73" s="1" t="s">
         <v>9</v>
@@ -2652,29 +2652,29 @@
         <v>5</v>
       </c>
       <c r="F73">
-        <v>1.4380761523046091</v>
+        <v>1.8642084168336674</v>
       </c>
       <c r="G73" s="2">
         <f t="shared" si="3"/>
-        <v>1.4380761523046091</v>
+        <v>1.8642084168336674</v>
       </c>
       <c r="H73" s="1">
         <v>0.79</v>
       </c>
       <c r="I73" s="2">
         <f t="shared" si="2"/>
-        <v>0.64807615230460902</v>
+        <v>1.0742084168336674</v>
       </c>
     </row>
     <row r="74" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A74" s="1">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="B74" s="1" t="s">
         <v>8</v>
       </c>
       <c r="C74" s="1">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="D74" s="1" t="s">
         <v>9</v>
@@ -2683,29 +2683,29 @@
         <v>5</v>
       </c>
       <c r="F74">
-        <v>1.3581763527054107</v>
+        <v>9.65</v>
       </c>
       <c r="G74" s="2">
         <f t="shared" si="3"/>
-        <v>1.3581763527054107</v>
+        <v>9.65</v>
       </c>
       <c r="H74" s="1">
         <v>0.79</v>
       </c>
       <c r="I74" s="2">
         <f t="shared" si="2"/>
-        <v>0.56817635270541067</v>
+        <v>8.86</v>
       </c>
     </row>
     <row r="75" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A75" s="1">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="B75" s="1" t="s">
         <v>8</v>
       </c>
       <c r="C75" s="1">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="D75" s="1" t="s">
         <v>9</v>
@@ -2714,29 +2714,29 @@
         <v>5</v>
       </c>
       <c r="F75">
-        <v>2.0506412825651301</v>
+        <v>9.65</v>
       </c>
       <c r="G75" s="2">
         <f t="shared" si="3"/>
-        <v>2.0506412825651301</v>
+        <v>9.65</v>
       </c>
       <c r="H75" s="1">
         <v>0.79</v>
       </c>
       <c r="I75" s="2">
         <f t="shared" si="2"/>
-        <v>1.2606412825651301</v>
+        <v>8.86</v>
       </c>
     </row>
     <row r="76" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A76" s="1">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="B76" s="1" t="s">
         <v>8</v>
       </c>
       <c r="C76" s="1">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="D76" s="1" t="s">
         <v>9</v>
@@ -2745,29 +2745,29 @@
         <v>5</v>
       </c>
       <c r="F76">
-        <v>1.1547950446347239</v>
+        <v>9.65</v>
       </c>
       <c r="G76" s="2">
         <f t="shared" si="3"/>
-        <v>1.1547950446347239</v>
+        <v>9.65</v>
       </c>
       <c r="H76" s="1">
         <v>0.79</v>
       </c>
       <c r="I76" s="2">
         <f t="shared" si="2"/>
-        <v>0.3647950446347239</v>
+        <v>8.86</v>
       </c>
     </row>
     <row r="77" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A77" s="1">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="B77" s="1" t="s">
         <v>8</v>
       </c>
       <c r="C77" s="1">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="D77" s="1" t="s">
         <v>9</v>
@@ -2776,153 +2776,153 @@
         <v>5</v>
       </c>
       <c r="F77">
-        <v>9.65</v>
+        <v>2.0683967935871741</v>
       </c>
       <c r="G77" s="2">
         <f t="shared" si="3"/>
-        <v>9.65</v>
+        <v>2.0683967935871741</v>
       </c>
       <c r="H77" s="1">
         <v>0.79</v>
       </c>
       <c r="I77" s="2">
         <f t="shared" si="2"/>
-        <v>8.86</v>
+        <v>1.2783967935871741</v>
       </c>
     </row>
     <row r="78" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A78" s="1">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C78" s="1">
-        <v>17</v>
+        <v>1</v>
       </c>
       <c r="D78" s="1" t="s">
         <v>9</v>
       </c>
       <c r="E78" s="1">
-        <v>5</v>
+        <v>50</v>
       </c>
       <c r="F78">
-        <v>9.65</v>
+        <v>0.56424849699398805</v>
       </c>
       <c r="G78" s="2">
         <f t="shared" si="3"/>
-        <v>9.65</v>
-      </c>
-      <c r="H78" s="1">
-        <v>0.79</v>
+        <v>0.56424849699398805</v>
+      </c>
+      <c r="H78" s="2">
+        <v>0.54100000000000015</v>
       </c>
       <c r="I78" s="2">
         <f t="shared" si="2"/>
-        <v>8.86</v>
+        <v>2.3248496993987899E-2</v>
       </c>
     </row>
     <row r="79" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A79" s="1">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C79" s="1">
-        <v>18</v>
+        <v>2</v>
       </c>
       <c r="D79" s="1" t="s">
         <v>9</v>
       </c>
       <c r="E79" s="1">
-        <v>5</v>
+        <v>50</v>
       </c>
       <c r="F79">
-        <v>7.1553507014028064</v>
+        <v>0.62486973947895796</v>
       </c>
       <c r="G79" s="2">
         <f t="shared" si="3"/>
-        <v>7.1553507014028064</v>
-      </c>
-      <c r="H79" s="1">
-        <v>0.79</v>
+        <v>0.62486973947895796</v>
+      </c>
+      <c r="H79" s="2">
+        <v>0.54100000000000015</v>
       </c>
       <c r="I79" s="2">
         <f t="shared" si="2"/>
-        <v>6.3653507014028063</v>
+        <v>8.3869739478957817E-2</v>
       </c>
     </row>
     <row r="80" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A80" s="1">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="B80" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C80" s="1">
-        <v>19</v>
+        <v>3</v>
       </c>
       <c r="D80" s="1" t="s">
         <v>9</v>
       </c>
       <c r="E80" s="1">
-        <v>5</v>
+        <v>50</v>
       </c>
       <c r="F80">
-        <v>1.5801202404809618</v>
+        <v>1.1159018036072146</v>
       </c>
       <c r="G80" s="2">
         <f t="shared" si="3"/>
-        <v>1.5801202404809618</v>
-      </c>
-      <c r="H80" s="1">
-        <v>0.79</v>
+        <v>1.1159018036072146</v>
+      </c>
+      <c r="H80" s="2">
+        <v>0.54100000000000015</v>
       </c>
       <c r="I80" s="2">
         <f t="shared" si="2"/>
-        <v>0.79012024048096174</v>
+        <v>0.57490180360721443</v>
       </c>
     </row>
     <row r="81" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A81" s="1">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="B81" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C81" s="1">
-        <v>20</v>
+        <v>4</v>
       </c>
       <c r="D81" s="1" t="s">
         <v>9</v>
       </c>
       <c r="E81" s="1">
-        <v>5</v>
+        <v>50</v>
       </c>
       <c r="F81">
-        <v>9.6056112224448906</v>
+        <v>0.56424849699398805</v>
       </c>
       <c r="G81" s="2">
         <f t="shared" si="3"/>
-        <v>9.6056112224448906</v>
-      </c>
-      <c r="H81" s="1">
-        <v>0.79</v>
+        <v>0.56424849699398805</v>
+      </c>
+      <c r="H81" s="2">
+        <v>0.54100000000000015</v>
       </c>
       <c r="I81" s="2">
         <f t="shared" si="2"/>
-        <v>8.8156112224448897</v>
+        <v>2.3248496993987899E-2</v>
       </c>
     </row>
     <row r="82" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A82" s="1">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="B82" s="1" t="s">
         <v>6</v>
       </c>
       <c r="C82" s="1">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D82" s="1" t="s">
         <v>9</v>
@@ -2931,29 +2931,29 @@
         <v>50</v>
       </c>
       <c r="F82">
-        <v>6.59</v>
+        <v>1.3523246492985972</v>
       </c>
       <c r="G82" s="2">
         <f t="shared" si="3"/>
-        <v>6.59</v>
+        <v>1.3523246492985972</v>
       </c>
       <c r="H82" s="2">
         <v>0.54100000000000015</v>
       </c>
       <c r="I82" s="2">
         <f t="shared" si="2"/>
-        <v>6.0489999999999995</v>
+        <v>0.81132464929859704</v>
       </c>
     </row>
     <row r="83" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A83" s="1">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="B83" s="1" t="s">
         <v>6</v>
       </c>
       <c r="C83" s="1">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="D83" s="1" t="s">
         <v>9</v>
@@ -2962,29 +2962,29 @@
         <v>50</v>
       </c>
       <c r="F83">
-        <v>6.59</v>
+        <v>0.56424849699398805</v>
       </c>
       <c r="G83" s="2">
         <f t="shared" si="3"/>
-        <v>6.59</v>
+        <v>0.56424849699398805</v>
       </c>
       <c r="H83" s="2">
         <v>0.54100000000000015</v>
       </c>
       <c r="I83" s="2">
         <f t="shared" si="2"/>
-        <v>6.0489999999999995</v>
+        <v>2.3248496993987899E-2</v>
       </c>
     </row>
     <row r="84" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A84" s="1">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="B84" s="1" t="s">
         <v>6</v>
       </c>
       <c r="C84" s="1">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="D84" s="1" t="s">
         <v>9</v>
@@ -2993,29 +2993,29 @@
         <v>50</v>
       </c>
       <c r="F84">
-        <v>0.87947895791583175</v>
+        <v>1.2189579158316635</v>
       </c>
       <c r="G84" s="2">
         <f t="shared" si="3"/>
-        <v>0.87947895791583175</v>
+        <v>1.2189579158316635</v>
       </c>
       <c r="H84" s="2">
         <v>0.54100000000000015</v>
       </c>
       <c r="I84" s="2">
         <f t="shared" si="2"/>
-        <v>0.3384789579158316</v>
+        <v>0.67795791583166332</v>
       </c>
     </row>
     <row r="85" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A85" s="1">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="B85" s="1" t="s">
         <v>6</v>
       </c>
       <c r="C85" s="1">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="D85" s="1" t="s">
         <v>9</v>
@@ -3024,29 +3024,29 @@
         <v>50</v>
       </c>
       <c r="F85">
-        <v>6.59</v>
+        <v>1.46750501002004</v>
       </c>
       <c r="G85" s="2">
         <f t="shared" si="3"/>
-        <v>6.59</v>
+        <v>1.46750501002004</v>
       </c>
       <c r="H85" s="2">
         <v>0.54100000000000015</v>
       </c>
       <c r="I85" s="2">
         <f t="shared" si="2"/>
-        <v>6.0489999999999995</v>
+        <v>0.92650501002003982</v>
       </c>
     </row>
     <row r="86" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A86" s="1">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="B86" s="1" t="s">
         <v>6</v>
       </c>
       <c r="C86" s="1">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="D86" s="1" t="s">
         <v>9</v>
@@ -3055,29 +3055,29 @@
         <v>50</v>
       </c>
       <c r="F86">
-        <v>1.0310320641282567</v>
+        <v>4.104529058116233</v>
       </c>
       <c r="G86" s="2">
         <f t="shared" si="3"/>
-        <v>1.0310320641282567</v>
+        <v>4.104529058116233</v>
       </c>
       <c r="H86" s="2">
         <v>0.54100000000000015</v>
       </c>
       <c r="I86" s="2">
         <f t="shared" si="2"/>
-        <v>0.49003206412825651</v>
+        <v>3.5635290581162327</v>
       </c>
     </row>
     <row r="87" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A87" s="1">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="B87" s="1" t="s">
         <v>6</v>
       </c>
       <c r="C87" s="1">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="D87" s="1" t="s">
         <v>9</v>
@@ -3086,29 +3086,29 @@
         <v>50</v>
       </c>
       <c r="F87">
-        <v>0.55212424849699404</v>
+        <v>4.5390534640709994</v>
       </c>
       <c r="G87" s="2">
         <f t="shared" si="3"/>
-        <v>0.55212424849699404</v>
+        <v>4.5390534640709994</v>
       </c>
       <c r="H87" s="2">
         <v>0.54100000000000015</v>
       </c>
       <c r="I87" s="2">
         <f t="shared" si="2"/>
-        <v>1.1124248496993894E-2</v>
+        <v>3.998053464070999</v>
       </c>
     </row>
     <row r="88" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A88" s="1">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="B88" s="1" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C88" s="1">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="D88" s="1" t="s">
         <v>9</v>
@@ -3117,29 +3117,29 @@
         <v>50</v>
       </c>
       <c r="F88">
-        <v>0.89160320641282576</v>
+        <v>3.0315330661322655</v>
       </c>
       <c r="G88" s="2">
         <f t="shared" si="3"/>
-        <v>0.89160320641282576</v>
+        <v>3.0315330661322655</v>
       </c>
       <c r="H88" s="2">
         <v>0.54100000000000015</v>
       </c>
       <c r="I88" s="2">
         <f t="shared" si="2"/>
-        <v>0.35060320641282561</v>
+        <v>2.4905330661322651</v>
       </c>
     </row>
     <row r="89" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A89" s="1">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="B89" s="1" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C89" s="1">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="D89" s="1" t="s">
         <v>9</v>
@@ -3148,29 +3148,29 @@
         <v>50</v>
       </c>
       <c r="F89">
-        <v>1.0916533066132266</v>
+        <v>0.56424849699398805</v>
       </c>
       <c r="G89" s="2">
         <f t="shared" si="3"/>
-        <v>1.0916533066132266</v>
+        <v>0.56424849699398805</v>
       </c>
       <c r="H89" s="2">
         <v>0.54100000000000015</v>
       </c>
       <c r="I89" s="2">
         <f t="shared" si="2"/>
-        <v>0.55065330661322642</v>
+        <v>2.3248496993987899E-2</v>
       </c>
     </row>
     <row r="90" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A90" s="1">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="B90" s="1" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C90" s="1">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D90" s="1" t="s">
         <v>9</v>
@@ -3179,29 +3179,29 @@
         <v>50</v>
       </c>
       <c r="F90">
-        <v>3.1588376753507017</v>
+        <v>0.56424849699398805</v>
       </c>
       <c r="G90" s="2">
         <f t="shared" si="3"/>
-        <v>3.1588376753507017</v>
+        <v>0.56424849699398805</v>
       </c>
       <c r="H90" s="2">
         <v>0.54100000000000015</v>
       </c>
       <c r="I90" s="2">
         <f t="shared" si="2"/>
-        <v>2.6178376753507013</v>
+        <v>2.3248496993987899E-2</v>
       </c>
     </row>
     <row r="91" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A91" s="1">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="B91" s="1" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C91" s="1">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="D91" s="1" t="s">
         <v>9</v>
@@ -3210,29 +3210,29 @@
         <v>50</v>
       </c>
       <c r="F91">
-        <v>1.1159018036072144</v>
+        <v>2.4253206412825654</v>
       </c>
       <c r="G91" s="2">
         <f t="shared" si="3"/>
-        <v>1.1159018036072144</v>
+        <v>2.4253206412825654</v>
       </c>
       <c r="H91" s="2">
         <v>0.54100000000000015</v>
       </c>
       <c r="I91" s="2">
         <f t="shared" si="2"/>
-        <v>0.57490180360721421</v>
+        <v>1.8843206412825653</v>
       </c>
     </row>
     <row r="92" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A92" s="1">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="B92" s="1" t="s">
         <v>8</v>
       </c>
       <c r="C92" s="1">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="D92" s="1" t="s">
         <v>9</v>
@@ -3241,29 +3241,29 @@
         <v>50</v>
       </c>
       <c r="F92">
-        <v>1.9403507014028054</v>
+        <v>1.2310821643286574</v>
       </c>
       <c r="G92" s="2">
         <f t="shared" si="3"/>
-        <v>1.9403507014028054</v>
+        <v>1.2310821643286574</v>
       </c>
       <c r="H92" s="2">
         <v>0.54100000000000015</v>
       </c>
       <c r="I92" s="2">
         <f t="shared" si="2"/>
-        <v>1.3993507014028053</v>
+        <v>0.69008216432865721</v>
       </c>
     </row>
     <row r="93" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A93" s="1">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="B93" s="1" t="s">
         <v>8</v>
       </c>
       <c r="C93" s="1">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="D93" s="1" t="s">
         <v>9</v>
@@ -3272,29 +3272,29 @@
         <v>50</v>
       </c>
       <c r="F93">
-        <v>6.59</v>
+        <v>4.1227154308617235</v>
       </c>
       <c r="G93" s="2">
         <f t="shared" si="3"/>
-        <v>6.59</v>
+        <v>4.1227154308617235</v>
       </c>
       <c r="H93" s="2">
         <v>0.54100000000000015</v>
       </c>
       <c r="I93" s="2">
         <f t="shared" si="2"/>
-        <v>6.0489999999999995</v>
+        <v>3.5817154308617232</v>
       </c>
     </row>
     <row r="94" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A94" s="1">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="B94" s="1" t="s">
         <v>8</v>
       </c>
       <c r="C94" s="1">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="D94" s="1" t="s">
         <v>9</v>
@@ -3303,29 +3303,29 @@
         <v>50</v>
       </c>
       <c r="F94">
-        <v>6.59</v>
+        <v>4.6278170520144766</v>
       </c>
       <c r="G94" s="2">
         <f t="shared" si="3"/>
-        <v>6.59</v>
+        <v>4.6278170520144766</v>
       </c>
       <c r="H94" s="2">
         <v>0.54100000000000015</v>
       </c>
       <c r="I94" s="2">
         <f t="shared" si="2"/>
-        <v>6.0489999999999995</v>
+        <v>4.0868170520144762</v>
       </c>
     </row>
     <row r="95" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A95" s="1">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="B95" s="1" t="s">
         <v>8</v>
       </c>
       <c r="C95" s="1">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="D95" s="1" t="s">
         <v>9</v>
@@ -3334,29 +3334,29 @@
         <v>50</v>
       </c>
       <c r="F95">
-        <v>1.6008717434869737</v>
+        <v>3.831733466933867</v>
       </c>
       <c r="G95" s="2">
         <f t="shared" si="3"/>
-        <v>1.6008717434869737</v>
+        <v>3.831733466933867</v>
       </c>
       <c r="H95" s="2">
         <v>0.54100000000000015</v>
       </c>
       <c r="I95" s="2">
         <f t="shared" si="2"/>
-        <v>1.0598717434869735</v>
+        <v>3.290733466933867</v>
       </c>
     </row>
     <row r="96" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A96" s="1">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="B96" s="1" t="s">
         <v>8</v>
       </c>
       <c r="C96" s="1">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="D96" s="1" t="s">
         <v>9</v>
@@ -3365,184 +3365,184 @@
         <v>50</v>
       </c>
       <c r="F96">
-        <v>0.87341683366733469</v>
+        <v>2.0737174348697396</v>
       </c>
       <c r="G96" s="2">
         <f t="shared" si="3"/>
-        <v>0.87341683366733469</v>
+        <v>2.0737174348697396</v>
       </c>
       <c r="H96" s="2">
         <v>0.54100000000000015</v>
       </c>
       <c r="I96" s="2">
         <f t="shared" si="2"/>
-        <v>0.33241683366733454</v>
+        <v>1.5327174348697394</v>
       </c>
     </row>
     <row r="97" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A97" s="1">
-        <v>96</v>
+        <v>101</v>
       </c>
       <c r="B97" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C97" s="1">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="D97" s="1" t="s">
         <v>9</v>
       </c>
       <c r="E97" s="1">
-        <v>50</v>
+        <v>500</v>
       </c>
       <c r="F97">
-        <v>3.183086172344689</v>
+        <v>1.6478657314629259</v>
       </c>
       <c r="G97" s="2">
         <f t="shared" si="3"/>
-        <v>3.183086172344689</v>
+        <v>1.6478657314629259</v>
       </c>
       <c r="H97" s="2">
-        <v>0.54100000000000015</v>
+        <v>0.875</v>
       </c>
       <c r="I97" s="2">
         <f t="shared" si="2"/>
-        <v>2.6420861723446887</v>
+        <v>0.77286573146292592</v>
       </c>
     </row>
     <row r="98" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A98" s="1">
-        <v>97</v>
+        <v>102</v>
       </c>
       <c r="B98" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C98" s="1">
-        <v>17</v>
+        <v>2</v>
       </c>
       <c r="D98" s="1" t="s">
         <v>9</v>
       </c>
       <c r="E98" s="1">
-        <v>50</v>
+        <v>500</v>
       </c>
       <c r="F98">
-        <v>1.2250200400801603</v>
+        <v>1.0902805611222448</v>
       </c>
       <c r="G98" s="2">
         <f t="shared" si="3"/>
-        <v>1.2250200400801603</v>
+        <v>1.0902805611222448</v>
       </c>
       <c r="H98" s="2">
-        <v>0.54100000000000015</v>
+        <v>0.875</v>
       </c>
       <c r="I98" s="2">
         <f t="shared" si="2"/>
-        <v>0.68402004008016015</v>
+        <v>0.21528056112224481</v>
       </c>
     </row>
     <row r="99" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A99" s="1">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="B99" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C99" s="1">
-        <v>18</v>
+        <v>3</v>
       </c>
       <c r="D99" s="1" t="s">
         <v>9</v>
       </c>
       <c r="E99" s="1">
-        <v>50</v>
+        <v>500</v>
       </c>
       <c r="F99">
-        <v>1.8191082164328656</v>
+        <v>1.1728857715430863</v>
       </c>
       <c r="G99" s="2">
         <f t="shared" si="3"/>
-        <v>1.8191082164328656</v>
+        <v>1.1728857715430863</v>
       </c>
       <c r="H99" s="2">
-        <v>0.54100000000000015</v>
+        <v>0.875</v>
       </c>
       <c r="I99" s="2">
         <f t="shared" si="2"/>
-        <v>1.2781082164328654</v>
+        <v>0.29788577154308626</v>
       </c>
     </row>
     <row r="100" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A100" s="1">
-        <v>99</v>
+        <v>104</v>
       </c>
       <c r="B100" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C100" s="1">
-        <v>19</v>
+        <v>4</v>
       </c>
       <c r="D100" s="1" t="s">
         <v>9</v>
       </c>
       <c r="E100" s="1">
-        <v>50</v>
+        <v>500</v>
       </c>
       <c r="F100">
-        <v>1.443256513026052</v>
+        <v>1.2210721442885775</v>
       </c>
       <c r="G100" s="2">
         <f t="shared" si="3"/>
-        <v>1.443256513026052</v>
+        <v>1.2210721442885775</v>
       </c>
       <c r="H100" s="2">
-        <v>0.54100000000000015</v>
+        <v>0.875</v>
       </c>
       <c r="I100" s="2">
         <f t="shared" si="2"/>
-        <v>0.90225651302605181</v>
+        <v>0.34607214428857747</v>
       </c>
     </row>
     <row r="101" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A101" s="1">
-        <v>100</v>
+        <v>105</v>
       </c>
       <c r="B101" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C101" s="1">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="D101" s="1" t="s">
         <v>9</v>
       </c>
       <c r="E101" s="1">
-        <v>50</v>
+        <v>500</v>
       </c>
       <c r="F101">
-        <v>6.59</v>
+        <v>1.2141883767535071</v>
       </c>
       <c r="G101" s="2">
         <f t="shared" si="3"/>
-        <v>6.59</v>
+        <v>1.2141883767535071</v>
       </c>
       <c r="H101" s="2">
-        <v>0.54100000000000015</v>
+        <v>0.875</v>
       </c>
       <c r="I101" s="2">
         <f t="shared" si="2"/>
-        <v>6.0489999999999995</v>
+        <v>0.3391883767535071</v>
       </c>
     </row>
     <row r="102" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A102" s="1">
-        <v>101</v>
+        <v>106</v>
       </c>
       <c r="B102" s="1" t="s">
         <v>6</v>
       </c>
       <c r="C102" s="1">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="D102" s="1" t="s">
         <v>9</v>
@@ -3551,29 +3551,29 @@
         <v>500</v>
       </c>
       <c r="F102">
-        <v>1.3380961923847696</v>
+        <v>0.91818637274549098</v>
       </c>
       <c r="G102" s="2">
         <f t="shared" si="3"/>
-        <v>1.3380961923847696</v>
+        <v>0.91818637274549098</v>
       </c>
       <c r="H102" s="2">
         <v>0.875</v>
       </c>
       <c r="I102" s="2">
         <f t="shared" si="2"/>
-        <v>0.46309619238476962</v>
+        <v>4.3186372745490975E-2</v>
       </c>
     </row>
     <row r="103" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A103" s="1">
-        <v>102</v>
+        <v>107</v>
       </c>
       <c r="B103" s="1" t="s">
         <v>6</v>
       </c>
       <c r="C103" s="1">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="D103" s="1" t="s">
         <v>9</v>
@@ -3582,29 +3582,29 @@
         <v>500</v>
       </c>
       <c r="F103">
-        <v>0.99390781563126251</v>
+        <v>1.1866533066132265</v>
       </c>
       <c r="G103" s="2">
         <f t="shared" si="3"/>
-        <v>0.99390781563126251</v>
+        <v>1.1866533066132265</v>
       </c>
       <c r="H103" s="2">
         <v>0.875</v>
       </c>
       <c r="I103" s="2">
         <f t="shared" si="2"/>
-        <v>0.11890781563126251</v>
+        <v>0.31165330661322654</v>
       </c>
     </row>
     <row r="104" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A104" s="1">
-        <v>103</v>
+        <v>108</v>
       </c>
       <c r="B104" s="1" t="s">
         <v>6</v>
       </c>
       <c r="C104" s="1">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="D104" s="1" t="s">
         <v>9</v>
@@ -3613,29 +3613,29 @@
         <v>500</v>
       </c>
       <c r="F104">
-        <v>1.0489779559118237</v>
+        <v>1.0902805611222448</v>
       </c>
       <c r="G104" s="2">
         <f t="shared" si="3"/>
-        <v>1.0489779559118237</v>
+        <v>1.0902805611222448</v>
       </c>
       <c r="H104" s="2">
         <v>0.875</v>
       </c>
       <c r="I104" s="2">
         <f t="shared" si="2"/>
-        <v>0.17397795591182375</v>
+        <v>0.21528056112224481</v>
       </c>
     </row>
     <row r="105" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A105" s="1">
-        <v>104</v>
+        <v>109</v>
       </c>
       <c r="B105" s="1" t="s">
         <v>6</v>
       </c>
       <c r="C105" s="1">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="D105" s="1" t="s">
         <v>9</v>
@@ -3644,29 +3644,29 @@
         <v>500</v>
       </c>
       <c r="F105">
-        <v>1.0902805611222446</v>
+        <v>1.0902805611222448</v>
       </c>
       <c r="G105" s="2">
         <f t="shared" si="3"/>
-        <v>1.0902805611222446</v>
+        <v>1.0902805611222448</v>
       </c>
       <c r="H105" s="2">
         <v>0.875</v>
       </c>
       <c r="I105" s="2">
         <f t="shared" si="2"/>
-        <v>0.21528056112224458</v>
+        <v>0.21528056112224481</v>
       </c>
     </row>
     <row r="106" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A106" s="1">
-        <v>105</v>
+        <v>110</v>
       </c>
       <c r="B106" s="1" t="s">
         <v>6</v>
       </c>
       <c r="C106" s="1">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="D106" s="1" t="s">
         <v>9</v>
@@ -3675,29 +3675,29 @@
         <v>500</v>
       </c>
       <c r="F106">
-        <v>1.0558617234468939</v>
+        <v>2.7492685370741485</v>
       </c>
       <c r="G106" s="2">
         <f t="shared" si="3"/>
-        <v>1.0558617234468939</v>
+        <v>2.7492685370741485</v>
       </c>
       <c r="H106" s="2">
         <v>0.875</v>
       </c>
       <c r="I106" s="2">
         <f t="shared" si="2"/>
-        <v>0.18086172344689389</v>
+        <v>1.8742685370741485</v>
       </c>
     </row>
     <row r="107" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A107" s="1">
-        <v>106</v>
+        <v>111</v>
       </c>
       <c r="B107" s="1" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C107" s="1">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="D107" s="1" t="s">
         <v>9</v>
@@ -3706,29 +3706,29 @@
         <v>500</v>
       </c>
       <c r="F107">
-        <v>7.74</v>
+        <v>1.6822845691382766</v>
       </c>
       <c r="G107" s="2">
         <f t="shared" si="3"/>
-        <v>7.74</v>
+        <v>1.6822845691382766</v>
       </c>
       <c r="H107" s="2">
         <v>0.875</v>
       </c>
       <c r="I107" s="2">
         <f t="shared" si="2"/>
-        <v>6.8650000000000002</v>
+        <v>0.80728456913827662</v>
       </c>
     </row>
     <row r="108" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A108" s="1">
-        <v>107</v>
+        <v>112</v>
       </c>
       <c r="B108" s="1" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C108" s="1">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="D108" s="1" t="s">
         <v>9</v>
@@ -3737,29 +3737,29 @@
         <v>500</v>
       </c>
       <c r="F108">
-        <v>1.062745490981964</v>
+        <v>1.9920541082164327</v>
       </c>
       <c r="G108" s="2">
         <f t="shared" si="3"/>
-        <v>1.062745490981964</v>
+        <v>1.9920541082164327</v>
       </c>
       <c r="H108" s="2">
         <v>0.875</v>
       </c>
       <c r="I108" s="2">
         <f t="shared" si="2"/>
-        <v>0.18774549098196402</v>
+        <v>1.1170541082164327</v>
       </c>
     </row>
     <row r="109" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A109" s="1">
-        <v>108</v>
+        <v>113</v>
       </c>
       <c r="B109" s="1" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C109" s="1">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="D109" s="1" t="s">
         <v>9</v>
@@ -3768,29 +3768,29 @@
         <v>500</v>
       </c>
       <c r="F109">
-        <v>1.0076753507014029</v>
+        <v>1.4138176352705409</v>
       </c>
       <c r="G109" s="2">
         <f t="shared" si="3"/>
-        <v>1.0076753507014029</v>
+        <v>1.4138176352705409</v>
       </c>
       <c r="H109" s="2">
         <v>0.875</v>
       </c>
       <c r="I109" s="2">
         <f t="shared" si="2"/>
-        <v>0.13267535070140291</v>
+        <v>0.53881763527054094</v>
       </c>
     </row>
     <row r="110" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A110" s="1">
-        <v>109</v>
+        <v>114</v>
       </c>
       <c r="B110" s="1" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C110" s="1">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D110" s="1" t="s">
         <v>9</v>
@@ -3799,29 +3799,29 @@
         <v>500</v>
       </c>
       <c r="F110">
-        <v>1.0076753507014029</v>
+        <v>1.406933867735471</v>
       </c>
       <c r="G110" s="2">
         <f t="shared" si="3"/>
-        <v>1.0076753507014029</v>
+        <v>1.406933867735471</v>
       </c>
       <c r="H110" s="2">
         <v>0.875</v>
       </c>
       <c r="I110" s="2">
         <f t="shared" si="2"/>
-        <v>0.13267535070140291</v>
+        <v>0.53193386773547102</v>
       </c>
     </row>
     <row r="111" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A111" s="1">
-        <v>110</v>
+        <v>115</v>
       </c>
       <c r="B111" s="1" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C111" s="1">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="D111" s="1" t="s">
         <v>9</v>
@@ -3830,29 +3830,29 @@
         <v>500</v>
       </c>
       <c r="F111">
-        <v>1.9232164328657317</v>
+        <v>1.3380961923847698</v>
       </c>
       <c r="G111" s="2">
         <f t="shared" si="3"/>
-        <v>1.9232164328657317</v>
+        <v>1.3380961923847698</v>
       </c>
       <c r="H111" s="2">
         <v>0.875</v>
       </c>
       <c r="I111" s="2">
         <f t="shared" si="2"/>
-        <v>1.0482164328657317</v>
+        <v>0.46309619238476984</v>
       </c>
     </row>
     <row r="112" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A112" s="1">
-        <v>111</v>
+        <v>116</v>
       </c>
       <c r="B112" s="1" t="s">
         <v>8</v>
       </c>
       <c r="C112" s="1">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="D112" s="1" t="s">
         <v>9</v>
@@ -3861,29 +3861,29 @@
         <v>500</v>
       </c>
       <c r="F112">
-        <v>1.3380961923847696</v>
+        <v>1.2967935871743488</v>
       </c>
       <c r="G112" s="2">
         <f t="shared" si="3"/>
-        <v>1.3380961923847696</v>
+        <v>1.2967935871743488</v>
       </c>
       <c r="H112" s="2">
         <v>0.875</v>
       </c>
       <c r="I112" s="2">
         <f t="shared" si="2"/>
-        <v>0.46309619238476962</v>
+        <v>0.42179358717434878</v>
       </c>
     </row>
     <row r="113" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A113" s="1">
-        <v>112</v>
+        <v>117</v>
       </c>
       <c r="B113" s="1" t="s">
         <v>8</v>
       </c>
       <c r="C113" s="1">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="D113" s="1" t="s">
         <v>9</v>
@@ -3892,29 +3892,29 @@
         <v>500</v>
       </c>
       <c r="F113">
-        <v>1.6065631262525053</v>
+        <v>2.7079659318637277</v>
       </c>
       <c r="G113" s="2">
         <f t="shared" si="3"/>
-        <v>1.6065631262525053</v>
+        <v>2.7079659318637277</v>
       </c>
       <c r="H113" s="2">
         <v>0.875</v>
       </c>
       <c r="I113" s="2">
         <f t="shared" si="2"/>
-        <v>0.7315631262525053</v>
+        <v>1.8329659318637277</v>
       </c>
     </row>
     <row r="114" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A114" s="1">
-        <v>113</v>
+        <v>118</v>
       </c>
       <c r="B114" s="1" t="s">
         <v>8</v>
       </c>
       <c r="C114" s="1">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="D114" s="1" t="s">
         <v>9</v>
@@ -3923,29 +3923,29 @@
         <v>500</v>
       </c>
       <c r="F114">
-        <v>1.207304609218437</v>
+        <v>2.0677755511022045</v>
       </c>
       <c r="G114" s="2">
         <f t="shared" si="3"/>
-        <v>1.207304609218437</v>
+        <v>2.0677755511022045</v>
       </c>
       <c r="H114" s="2">
         <v>0.875</v>
       </c>
       <c r="I114" s="2">
         <f t="shared" si="2"/>
-        <v>0.33230460921843696</v>
+        <v>1.1927755511022045</v>
       </c>
     </row>
     <row r="115" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A115" s="1">
-        <v>114</v>
+        <v>119</v>
       </c>
       <c r="B115" s="1" t="s">
         <v>8</v>
       </c>
       <c r="C115" s="1">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="D115" s="1" t="s">
         <v>9</v>
@@ -3954,204 +3954,18 @@
         <v>500</v>
       </c>
       <c r="F115">
-        <v>1.1522344689378758</v>
+        <v>1.6409819639278558</v>
       </c>
       <c r="G115" s="2">
         <f t="shared" si="3"/>
-        <v>1.1522344689378758</v>
+        <v>1.6409819639278558</v>
       </c>
       <c r="H115" s="2">
         <v>0.875</v>
       </c>
       <c r="I115" s="2">
         <f t="shared" si="2"/>
-        <v>0.27723446893787584</v>
-      </c>
-    </row>
-    <row r="116" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A116" s="1">
-        <v>115</v>
-      </c>
-      <c r="B116" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C116" s="1">
-        <v>15</v>
-      </c>
-      <c r="D116" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E116" s="1">
-        <v>500</v>
-      </c>
-      <c r="F116">
-        <v>1.1522344689378758</v>
-      </c>
-      <c r="G116" s="2">
-        <f t="shared" si="3"/>
-        <v>1.1522344689378758</v>
-      </c>
-      <c r="H116" s="2">
-        <v>0.875</v>
-      </c>
-      <c r="I116" s="2">
-        <f t="shared" si="2"/>
-        <v>0.27723446893787584</v>
-      </c>
-    </row>
-    <row r="117" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A117" s="1">
-        <v>116</v>
-      </c>
-      <c r="B117" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C117" s="1">
-        <v>16</v>
-      </c>
-      <c r="D117" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E117" s="1">
-        <v>500</v>
-      </c>
-      <c r="F117">
-        <v>1.110931863727455</v>
-      </c>
-      <c r="G117" s="2">
-        <f t="shared" si="3"/>
-        <v>1.110931863727455</v>
-      </c>
-      <c r="H117" s="2">
-        <v>0.875</v>
-      </c>
-      <c r="I117" s="2">
-        <f t="shared" si="2"/>
-        <v>0.235931863727455</v>
-      </c>
-    </row>
-    <row r="118" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A118" s="1">
-        <v>117</v>
-      </c>
-      <c r="B118" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C118" s="1">
-        <v>17</v>
-      </c>
-      <c r="D118" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E118" s="1">
-        <v>500</v>
-      </c>
-      <c r="F118">
-        <v>1.8612625250501003</v>
-      </c>
-      <c r="G118" s="2">
-        <f t="shared" si="3"/>
-        <v>1.8612625250501003</v>
-      </c>
-      <c r="H118" s="2">
-        <v>0.875</v>
-      </c>
-      <c r="I118" s="2">
-        <f t="shared" si="2"/>
-        <v>0.98626252505010026</v>
-      </c>
-    </row>
-    <row r="119" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A119" s="1">
-        <v>118</v>
-      </c>
-      <c r="B119" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C119" s="1">
-        <v>18</v>
-      </c>
-      <c r="D119" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E119" s="1">
-        <v>500</v>
-      </c>
-      <c r="F119">
-        <v>1.5721442885771544</v>
-      </c>
-      <c r="G119" s="2">
-        <f t="shared" si="3"/>
-        <v>1.5721442885771544</v>
-      </c>
-      <c r="H119" s="2">
-        <v>0.875</v>
-      </c>
-      <c r="I119" s="2">
-        <f t="shared" si="2"/>
-        <v>0.69714428857715438</v>
-      </c>
-    </row>
-    <row r="120" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A120" s="1">
-        <v>119</v>
-      </c>
-      <c r="B120" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C120" s="1">
-        <v>19</v>
-      </c>
-      <c r="D120" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E120" s="1">
-        <v>500</v>
-      </c>
-      <c r="F120">
-        <v>1.3243286573146293</v>
-      </c>
-      <c r="G120" s="2">
-        <f t="shared" si="3"/>
-        <v>1.3243286573146293</v>
-      </c>
-      <c r="H120" s="2">
-        <v>0.875</v>
-      </c>
-      <c r="I120" s="2">
-        <f t="shared" si="2"/>
-        <v>0.44932865731462934</v>
-      </c>
-    </row>
-    <row r="121" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A121" s="1">
-        <v>120</v>
-      </c>
-      <c r="B121" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C121" s="1">
-        <v>20</v>
-      </c>
-      <c r="D121" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E121" s="1">
-        <v>500</v>
-      </c>
-      <c r="F121">
-        <v>6.4966194889779567</v>
-      </c>
-      <c r="G121" s="2">
-        <f t="shared" si="3"/>
-        <v>6.4966194889779567</v>
-      </c>
-      <c r="H121" s="2">
-        <v>0.875</v>
-      </c>
-      <c r="I121" s="2">
-        <f t="shared" si="2"/>
-        <v>5.6216194889779567</v>
+        <v>0.76598196392785578</v>
       </c>
     </row>
   </sheetData>

--- a/matlab/statistics/rawDataAnovaPitchDiffThresholdWithout9Sub.xlsx
+++ b/matlab/statistics/rawDataAnovaPitchDiffThresholdWithout9Sub.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21231"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1582536F-338B-46DC-B540-4BB59693A61D}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A7C627E-459C-4FD9-B209-6CC46A124D7F}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12650" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11620" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Blad1" sheetId="1" r:id="rId1"/>
@@ -390,8 +390,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I115"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2:F115"/>
+    <sheetView tabSelected="1" topLeftCell="A91" workbookViewId="0">
+      <selection activeCell="G115" sqref="G115"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -454,15 +454,14 @@
         <v>0.6916032064128258</v>
       </c>
       <c r="G2" s="2">
-        <f>F2</f>
-        <v>0.6916032064128258</v>
+        <v>0.568831915957979</v>
       </c>
       <c r="H2" s="2">
         <v>0.38800000000000001</v>
       </c>
       <c r="I2" s="2">
         <f>G2-H2</f>
-        <v>0.30360320641282579</v>
+        <v>0.18083191595797898</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.35">
@@ -485,15 +484,14 @@
         <v>0.75393286573146301</v>
       </c>
       <c r="G3" s="2">
-        <f>F3</f>
-        <v>0.75393286573146301</v>
+        <v>0.60907078539269632</v>
       </c>
       <c r="H3" s="2">
         <v>0.38800000000000001</v>
       </c>
       <c r="I3" s="2">
         <f t="shared" ref="I3:I63" si="0">G3-H3</f>
-        <v>0.365932865731463</v>
+        <v>0.22107078539269631</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.35">
@@ -516,15 +514,14 @@
         <v>0.88074148296593191</v>
       </c>
       <c r="G4" s="2">
-        <f t="shared" ref="G4:G64" si="1">F4</f>
-        <v>0.88074148296593191</v>
+        <v>0.69062156078039028</v>
       </c>
       <c r="H4" s="2">
         <v>0.38800000000000001</v>
       </c>
       <c r="I4" s="2">
         <f t="shared" si="0"/>
-        <v>0.4927414829659319</v>
+        <v>0.30262156078039026</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.35">
@@ -547,15 +544,14 @@
         <v>0.60563126252505017</v>
       </c>
       <c r="G5" s="2">
-        <f t="shared" si="1"/>
-        <v>0.60563126252505017</v>
+        <v>0.51625312656328159</v>
       </c>
       <c r="H5" s="2">
         <v>0.38800000000000001</v>
       </c>
       <c r="I5" s="2">
         <f t="shared" si="0"/>
-        <v>0.21763126252505016</v>
+        <v>0.12825312656328158</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.35">
@@ -578,15 +574,14 @@
         <v>0.68300601202404831</v>
       </c>
       <c r="G6" s="2">
-        <f t="shared" si="1"/>
-        <v>0.68300601202404831</v>
+        <v>0.56453976988494259</v>
       </c>
       <c r="H6" s="2">
         <v>0.38800000000000001</v>
       </c>
       <c r="I6" s="2">
         <f t="shared" si="0"/>
-        <v>0.2950060120240483</v>
+        <v>0.17653976988494258</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.35">
@@ -609,15 +604,14 @@
         <v>0.42509018036072144</v>
       </c>
       <c r="G7" s="2">
-        <f t="shared" si="1"/>
-        <v>0.42509018036072144</v>
+        <v>0.41592421210605302</v>
       </c>
       <c r="H7" s="2">
         <v>0.38800000000000001</v>
       </c>
       <c r="I7" s="2">
         <f t="shared" si="0"/>
-        <v>3.7090180360721425E-2</v>
+        <v>2.7924212106053004E-2</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.35">
@@ -640,15 +634,14 @@
         <v>1.6007565130260519</v>
       </c>
       <c r="G8" s="2">
-        <f t="shared" si="1"/>
-        <v>1.6007565130260519</v>
+        <v>1.2566483241620809</v>
       </c>
       <c r="H8" s="2">
         <v>0.38800000000000001</v>
       </c>
       <c r="I8" s="2">
         <f t="shared" si="0"/>
-        <v>1.212756513026052</v>
+        <v>0.86864832416208093</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.35">
@@ -671,15 +664,14 @@
         <v>0.8334569138276553</v>
       </c>
       <c r="G9" s="2">
-        <f t="shared" si="1"/>
-        <v>0.8334569138276553</v>
+        <v>0.65199224612306139</v>
       </c>
       <c r="H9" s="2">
         <v>0.38800000000000001</v>
       </c>
       <c r="I9" s="2">
         <f t="shared" si="0"/>
-        <v>0.44545691382765529</v>
+        <v>0.26399224612306138</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.35">
@@ -702,15 +694,14 @@
         <v>2.0800501002004008</v>
       </c>
       <c r="G10" s="2">
-        <f t="shared" si="1"/>
-        <v>2.0800501002004008</v>
+        <v>1.718054027013507</v>
       </c>
       <c r="H10" s="2">
         <v>0.38800000000000001</v>
       </c>
       <c r="I10" s="2">
         <f t="shared" si="0"/>
-        <v>1.6920501002004009</v>
+        <v>1.3300540270135071</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.35">
@@ -733,15 +724,14 @@
         <v>0.78402304609218443</v>
       </c>
       <c r="G11" s="2">
-        <f t="shared" si="1"/>
-        <v>0.78402304609218443</v>
+        <v>0.65360180090045006</v>
       </c>
       <c r="H11" s="2">
         <v>0.38800000000000001</v>
       </c>
       <c r="I11" s="2">
         <f t="shared" si="0"/>
-        <v>0.39602304609218442</v>
+        <v>0.26560180090045005</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.35">
@@ -764,15 +754,14 @@
         <v>2.5142084168336676</v>
       </c>
       <c r="G12" s="2">
-        <f t="shared" si="1"/>
-        <v>2.5142084168336676</v>
+        <v>1.987922711355677</v>
       </c>
       <c r="H12" s="2">
         <v>0.38800000000000001</v>
       </c>
       <c r="I12" s="2">
         <f t="shared" si="0"/>
-        <v>2.1262084168336677</v>
+        <v>1.5999227113556769</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.35">
@@ -795,15 +784,14 @@
         <v>0.80551603206412814</v>
       </c>
       <c r="G13" s="2">
-        <f t="shared" si="1"/>
-        <v>0.80551603206412814</v>
+        <v>0.63804277138569276</v>
       </c>
       <c r="H13" s="2">
         <v>0.38800000000000001</v>
       </c>
       <c r="I13" s="2">
         <f t="shared" si="0"/>
-        <v>0.41751603206412813</v>
+        <v>0.25004277138569275</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.35">
@@ -826,15 +814,14 @@
         <v>1.3320941883767534</v>
       </c>
       <c r="G14" s="2">
-        <f t="shared" si="1"/>
-        <v>1.3320941883767534</v>
+        <v>0.97819534767383709</v>
       </c>
       <c r="H14" s="2">
         <v>0.38800000000000001</v>
       </c>
       <c r="I14" s="2">
         <f t="shared" si="0"/>
-        <v>0.94409418837675341</v>
+        <v>0.59019534767383708</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.35">
@@ -857,15 +844,14 @@
         <v>1.1794939879759518</v>
       </c>
       <c r="G15" s="2">
-        <f t="shared" si="1"/>
-        <v>1.1794939879759518</v>
+        <v>0.83494497248624322</v>
       </c>
       <c r="H15" s="2">
         <v>0.38800000000000001</v>
       </c>
       <c r="I15" s="2">
         <f t="shared" si="0"/>
-        <v>0.79149398797595183</v>
+        <v>0.44694497248624321</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.35">
@@ -888,15 +874,14 @@
         <v>0.94522044088176371</v>
       </c>
       <c r="G16" s="2">
-        <f t="shared" si="1"/>
-        <v>0.94522044088176371</v>
+        <v>0.72710480240120035</v>
       </c>
       <c r="H16" s="2">
         <v>0.38800000000000001</v>
       </c>
       <c r="I16" s="2">
         <f t="shared" si="0"/>
-        <v>0.5572204408817637</v>
+        <v>0.33910480240120033</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.35">
@@ -919,15 +904,14 @@
         <v>2.0134218436873743</v>
       </c>
       <c r="G17" s="2">
-        <f t="shared" si="1"/>
-        <v>2.0134218436873743</v>
+        <v>1.3011793396698357</v>
       </c>
       <c r="H17" s="2">
         <v>0.38800000000000001</v>
       </c>
       <c r="I17" s="2">
         <f t="shared" si="0"/>
-        <v>1.6254218436873744</v>
+        <v>0.91317933966983567</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.35">
@@ -950,15 +934,14 @@
         <v>0.80981462925851699</v>
       </c>
       <c r="G18" s="2">
-        <f t="shared" si="1"/>
-        <v>0.80981462925851699</v>
+        <v>0.62248374187093558</v>
       </c>
       <c r="H18" s="2">
         <v>0.38800000000000001</v>
       </c>
       <c r="I18" s="2">
         <f t="shared" si="0"/>
-        <v>0.42181462925851698</v>
+        <v>0.23448374187093557</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.35">
@@ -981,15 +964,14 @@
         <v>1.2224799599198397</v>
       </c>
       <c r="G19" s="2">
-        <f t="shared" si="1"/>
-        <v>1.2224799599198397</v>
+        <v>0.79309654827413711</v>
       </c>
       <c r="H19" s="2">
         <v>0.38800000000000001</v>
       </c>
       <c r="I19" s="2">
         <f t="shared" si="0"/>
-        <v>0.8344799599198397</v>
+        <v>0.4050965482741371</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.35">
@@ -1012,15 +994,14 @@
         <v>0.41434368737474953</v>
       </c>
       <c r="G20" s="2">
-        <f t="shared" si="1"/>
-        <v>0.41434368737474953</v>
+        <v>0.40680340170085044</v>
       </c>
       <c r="H20" s="2">
         <v>0.38800000000000001</v>
       </c>
       <c r="I20" s="2">
         <f t="shared" si="0"/>
-        <v>2.6343687374749514E-2</v>
+        <v>1.8803401700850431E-2</v>
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.35">
@@ -1043,15 +1024,14 @@
         <v>1.0287675350701402</v>
       </c>
       <c r="G21" s="2">
-        <f t="shared" si="1"/>
-        <v>1.0287675350701402</v>
+        <v>0.82190595297648794</v>
       </c>
       <c r="H21" s="2">
         <v>0.46150000000000002</v>
       </c>
       <c r="I21" s="2">
         <f t="shared" si="0"/>
-        <v>0.56726753507014016</v>
+        <v>0.36040595297648792</v>
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.35">
@@ -1074,15 +1054,14 @@
         <v>1.0882464929859719</v>
       </c>
       <c r="G22" s="2">
-        <f t="shared" si="1"/>
-        <v>1.0882464929859719</v>
+        <v>0.81262631315657807</v>
       </c>
       <c r="H22" s="2">
         <v>0.46150000000000002</v>
       </c>
       <c r="I22" s="2">
         <f t="shared" si="0"/>
-        <v>0.62674649298597185</v>
+        <v>0.35112631315657805</v>
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.35">
@@ -1105,15 +1084,14 @@
         <v>1.0510721442885771</v>
       </c>
       <c r="G23" s="2">
-        <f t="shared" si="1"/>
-        <v>1.0510721442885771</v>
+        <v>0.85438469234617342</v>
       </c>
       <c r="H23" s="2">
         <v>0.46150000000000002</v>
       </c>
       <c r="I23" s="2">
         <f t="shared" si="0"/>
-        <v>0.58957214428857707</v>
+        <v>0.3928846923461734</v>
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.35">
@@ -1136,15 +1114,14 @@
         <v>1.1402905811623247</v>
       </c>
       <c r="G24" s="2">
-        <f t="shared" si="1"/>
-        <v>1.1402905811623247</v>
+        <v>0.88779139569784882</v>
       </c>
       <c r="H24" s="2">
         <v>0.46150000000000002</v>
       </c>
       <c r="I24" s="2">
         <f t="shared" si="0"/>
-        <v>0.67879058116232471</v>
+        <v>0.4262913956978488</v>
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.35">
@@ -1167,15 +1144,14 @@
         <v>0.51204408817635272</v>
       </c>
       <c r="G25" s="2">
-        <f t="shared" si="1"/>
-        <v>0.51204408817635272</v>
+        <v>0.49340670335167586</v>
       </c>
       <c r="H25" s="2">
         <v>0.46150000000000002</v>
       </c>
       <c r="I25" s="2">
         <f t="shared" si="0"/>
-        <v>5.0544088176352697E-2</v>
+        <v>3.1906703351675836E-2</v>
       </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.35">
@@ -1198,15 +1174,14 @@
         <v>0.79828657314629237</v>
       </c>
       <c r="G26" s="2">
-        <f t="shared" si="1"/>
-        <v>0.79828657314629237</v>
+        <v>0.65672836418209102</v>
       </c>
       <c r="H26" s="2">
         <v>0.46150000000000002</v>
       </c>
       <c r="I26" s="2">
         <f t="shared" si="0"/>
-        <v>0.33678657314629235</v>
+        <v>0.195228364182091</v>
       </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.35">
@@ -1229,15 +1204,14 @@
         <v>0.48230460921843687</v>
       </c>
       <c r="G27" s="2">
-        <f t="shared" si="1"/>
-        <v>0.48230460921843687</v>
+        <v>0.47299149574787397</v>
       </c>
       <c r="H27" s="2">
         <v>0.46150000000000002</v>
       </c>
       <c r="I27" s="2">
         <f t="shared" si="0"/>
-        <v>2.0804609218436854E-2</v>
+        <v>1.1491495747873948E-2</v>
       </c>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.35">
@@ -1260,15 +1234,14 @@
         <v>1.4637074148296594</v>
       </c>
       <c r="G28" s="2">
-        <f t="shared" si="1"/>
-        <v>1.4637074148296594</v>
+        <v>1.0835917958979493</v>
       </c>
       <c r="H28" s="2">
         <v>0.46150000000000002</v>
       </c>
       <c r="I28" s="2">
         <f t="shared" si="0"/>
-        <v>1.0022074148296594</v>
+        <v>0.62209179589794927</v>
       </c>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.35">
@@ -1291,15 +1264,14 @@
         <v>1.8077250334001338</v>
       </c>
       <c r="G29" s="2">
-        <f t="shared" si="1"/>
-        <v>1.8077250334001338</v>
+        <v>3.587077772219442</v>
       </c>
       <c r="H29" s="2">
         <v>0.46150000000000002</v>
       </c>
       <c r="I29" s="2">
         <f t="shared" si="0"/>
-        <v>1.3462250334001338</v>
+        <v>3.125577772219442</v>
       </c>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.35">
@@ -1322,15 +1294,14 @@
         <v>1.1328557114228455</v>
       </c>
       <c r="G30" s="2">
-        <f t="shared" si="1"/>
-        <v>1.1328557114228455</v>
+        <v>0.85995247623811943</v>
       </c>
       <c r="H30" s="2">
         <v>0.46150000000000002</v>
       </c>
       <c r="I30" s="2">
         <f t="shared" si="0"/>
-        <v>0.67135571142284545</v>
+        <v>0.39845247623811941</v>
       </c>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.35">
@@ -1353,15 +1324,14 @@
         <v>1.0473547094188376</v>
       </c>
       <c r="G31" s="2">
-        <f t="shared" si="1"/>
-        <v>1.0473547094188376</v>
+        <v>0.79870685342671344</v>
       </c>
       <c r="H31" s="2">
         <v>0.46150000000000002</v>
       </c>
       <c r="I31" s="2">
         <f t="shared" si="0"/>
-        <v>0.58585470941883755</v>
+        <v>0.33720685342671342</v>
       </c>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.35">
@@ -1384,15 +1354,14 @@
         <v>0.95070140280561133</v>
       </c>
       <c r="G32" s="2">
-        <f t="shared" si="1"/>
-        <v>0.95070140280561133</v>
+        <v>0.72168584292146098</v>
       </c>
       <c r="H32" s="2">
         <v>0.46150000000000002</v>
       </c>
       <c r="I32" s="2">
         <f t="shared" si="0"/>
-        <v>0.48920140280561131</v>
+        <v>0.26018584292146096</v>
       </c>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.35">
@@ -1415,15 +1384,14 @@
         <v>0.51204408817635272</v>
       </c>
       <c r="G33" s="2">
-        <f t="shared" si="1"/>
-        <v>0.51204408817635272</v>
+        <v>0.49247873936968489</v>
       </c>
       <c r="H33" s="2">
         <v>0.46150000000000002</v>
       </c>
       <c r="I33" s="2">
         <f t="shared" si="0"/>
-        <v>5.0544088176352697E-2</v>
+        <v>3.0978739369684871E-2</v>
       </c>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.35">
@@ -1446,15 +1414,14 @@
         <v>1.1700300601202402</v>
       </c>
       <c r="G34" s="2">
-        <f t="shared" si="1"/>
-        <v>1.1700300601202402</v>
+        <v>0.84324912456228118</v>
       </c>
       <c r="H34" s="2">
         <v>0.46150000000000002</v>
       </c>
       <c r="I34" s="2">
         <f t="shared" si="0"/>
-        <v>0.70853006012024022</v>
+        <v>0.38174912456228116</v>
       </c>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.35">
@@ -1477,15 +1444,14 @@
         <v>0.98787575150300611</v>
       </c>
       <c r="G35" s="2">
-        <f t="shared" si="1"/>
-        <v>0.98787575150300611</v>
+        <v>0.76715607803901942</v>
       </c>
       <c r="H35" s="2">
         <v>0.46150000000000002</v>
       </c>
       <c r="I35" s="2">
         <f t="shared" si="0"/>
-        <v>0.52637575150300608</v>
+        <v>0.3056560780390194</v>
       </c>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.35">
@@ -1508,15 +1474,14 @@
         <v>1.0324849699398797</v>
       </c>
       <c r="G36" s="2">
-        <f t="shared" si="1"/>
-        <v>1.0324849699398797</v>
+        <v>0.77736368184092064</v>
       </c>
       <c r="H36" s="2">
         <v>0.46150000000000002</v>
       </c>
       <c r="I36" s="2">
         <f t="shared" si="0"/>
-        <v>0.57098496993987968</v>
+        <v>0.31586368184092062</v>
       </c>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.35">
@@ -1539,15 +1504,14 @@
         <v>1.2964228456913827</v>
       </c>
       <c r="G37" s="2">
-        <f t="shared" si="1"/>
-        <v>1.2964228456913827</v>
+        <v>0.97502001000500238</v>
       </c>
       <c r="H37" s="2">
         <v>0.46150000000000002</v>
       </c>
       <c r="I37" s="2">
         <f t="shared" si="0"/>
-        <v>0.83492284569138264</v>
+        <v>0.51352001000500236</v>
       </c>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.35">
@@ -1570,15 +1534,14 @@
         <v>2.404218436873748</v>
       </c>
       <c r="G38" s="2">
-        <f t="shared" si="1"/>
-        <v>2.404218436873748</v>
+        <v>1.6264507253626814</v>
       </c>
       <c r="H38" s="2">
         <v>0.46150000000000002</v>
       </c>
       <c r="I38" s="2">
         <f t="shared" si="0"/>
-        <v>1.942718436873748</v>
+        <v>1.1649507253626814</v>
       </c>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.35">
@@ -1601,15 +1564,14 @@
         <v>0.48230460921843687</v>
       </c>
       <c r="G39" s="2">
-        <f t="shared" si="1"/>
-        <v>0.48230460921843687</v>
+        <v>0.47113556778389198</v>
       </c>
       <c r="H39" s="2">
         <v>0.46150000000000002</v>
       </c>
       <c r="I39" s="2">
         <f t="shared" si="0"/>
-        <v>2.0804609218436854E-2</v>
+        <v>9.6355677838919629E-3</v>
       </c>
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.35">
@@ -1632,15 +1594,14 @@
         <v>1.5476252505010017</v>
       </c>
       <c r="G40" s="2">
-        <f t="shared" si="1"/>
-        <v>1.5476252505010017</v>
+        <v>1.2585517758879439</v>
       </c>
       <c r="H40" s="2">
         <v>0.75150000000000006</v>
       </c>
       <c r="I40" s="2">
         <f t="shared" si="0"/>
-        <v>0.79612525050100169</v>
+        <v>0.50705177588794381</v>
       </c>
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.35">
@@ -1663,15 +1624,14 @@
         <v>1.2101102204408818</v>
       </c>
       <c r="G41" s="2">
-        <f t="shared" si="1"/>
-        <v>1.2101102204408818</v>
+        <v>0.92655827913956978</v>
       </c>
       <c r="H41" s="2">
         <v>0.75150000000000006</v>
       </c>
       <c r="I41" s="2">
         <f t="shared" si="0"/>
-        <v>0.45861022044088173</v>
+        <v>0.17505827913956973</v>
       </c>
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.35">
@@ -1694,15 +1654,14 @@
         <v>2.1061322645290574</v>
       </c>
       <c r="G42" s="2">
-        <f t="shared" si="1"/>
-        <v>2.1061322645290574</v>
+        <v>1.2876388194097048</v>
       </c>
       <c r="H42" s="2">
         <v>0.75150000000000006</v>
       </c>
       <c r="I42" s="2">
         <f t="shared" si="0"/>
-        <v>1.3546322645290574</v>
+        <v>0.53613881940970476</v>
       </c>
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.35">
@@ -1725,15 +1684,14 @@
         <v>0.79625250501001998</v>
       </c>
       <c r="G43" s="2">
-        <f t="shared" si="1"/>
-        <v>0.79625250501001998</v>
+        <v>0.77309904952476238</v>
       </c>
       <c r="H43" s="2">
         <v>0.75150000000000006</v>
       </c>
       <c r="I43" s="2">
         <f t="shared" si="0"/>
-        <v>4.4752505010019927E-2</v>
+        <v>2.1599049524762326E-2</v>
       </c>
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.35">
@@ -1756,15 +1714,14 @@
         <v>0.79625250501001998</v>
       </c>
       <c r="G44" s="2">
-        <f t="shared" si="1"/>
-        <v>0.79625250501001998</v>
+        <v>0.77309904952476238</v>
       </c>
       <c r="H44" s="2">
         <v>0.75150000000000006</v>
       </c>
       <c r="I44" s="2">
         <f t="shared" si="0"/>
-        <v>4.4752505010019927E-2</v>
+        <v>2.1599049524762326E-2</v>
       </c>
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.35">
@@ -1787,15 +1744,14 @@
         <v>0.7600901803607214</v>
       </c>
       <c r="G45" s="2">
-        <f t="shared" si="1"/>
-        <v>0.7600901803607214</v>
+        <v>0.74902701350675338</v>
       </c>
       <c r="H45" s="2">
         <v>0.75150000000000006</v>
       </c>
       <c r="I45" s="2">
         <f t="shared" si="0"/>
-        <v>8.5901803607213445E-3</v>
+        <v>-2.4729864932466761E-3</v>
       </c>
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.35">
@@ -1818,15 +1774,14 @@
         <v>0.77616232464929857</v>
       </c>
       <c r="G46" s="2">
-        <f t="shared" si="1"/>
-        <v>0.77616232464929857</v>
+        <v>0.76106303151575783</v>
       </c>
       <c r="H46" s="2">
         <v>0.75150000000000006</v>
       </c>
       <c r="I46" s="2">
         <f t="shared" si="0"/>
-        <v>2.4662324649298517E-2</v>
+        <v>9.5630315157577694E-3</v>
       </c>
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.35">
@@ -1849,15 +1804,14 @@
         <v>3.2753807615230444</v>
       </c>
       <c r="G47" s="2">
-        <f t="shared" si="1"/>
-        <v>3.2753807615230444</v>
+        <v>1.5223411705852925</v>
       </c>
       <c r="H47" s="2">
         <v>0.75150000000000006</v>
       </c>
       <c r="I47" s="2">
         <f t="shared" si="0"/>
-        <v>2.5238807615230443</v>
+        <v>0.77084117058529245</v>
       </c>
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.35">
@@ -1880,15 +1834,14 @@
         <v>1.5837875751503006</v>
       </c>
       <c r="G48" s="2">
-        <f t="shared" si="1"/>
-        <v>1.5837875751503006</v>
+        <v>1.2324737368684342</v>
       </c>
       <c r="H48" s="2">
         <v>0.75150000000000006</v>
       </c>
       <c r="I48" s="2">
         <f t="shared" si="0"/>
-        <v>0.8322875751503005</v>
+        <v>0.48097373686843414</v>
       </c>
     </row>
     <row r="49" spans="1:9" x14ac:dyDescent="0.35">
@@ -1911,15 +1864,14 @@
         <v>1.3708316633266531</v>
       </c>
       <c r="G49" s="2">
-        <f t="shared" si="1"/>
-        <v>1.3708316633266531</v>
+        <v>1.111110555277639</v>
       </c>
       <c r="H49" s="2">
         <v>0.75150000000000006</v>
       </c>
       <c r="I49" s="2">
         <f t="shared" si="0"/>
-        <v>0.61933166332665301</v>
+        <v>0.35961055527763897</v>
       </c>
     </row>
     <row r="50" spans="1:9" x14ac:dyDescent="0.35">
@@ -1942,15 +1894,14 @@
         <v>1.6962925851703405</v>
       </c>
       <c r="G50" s="2">
-        <f t="shared" si="1"/>
-        <v>1.6962925851703405</v>
+        <v>1.3438069034517257</v>
       </c>
       <c r="H50" s="2">
         <v>0.75150000000000006</v>
       </c>
       <c r="I50" s="2">
         <f t="shared" si="0"/>
-        <v>0.94479258517034048</v>
+        <v>0.59230690345172565</v>
       </c>
     </row>
     <row r="51" spans="1:9" x14ac:dyDescent="0.35">
@@ -1973,15 +1924,14 @@
         <v>1.535571142284569</v>
       </c>
       <c r="G51" s="2">
-        <f t="shared" si="1"/>
-        <v>1.535571142284569</v>
+        <v>1.24852176088044</v>
       </c>
       <c r="H51" s="2">
         <v>0.75150000000000006</v>
       </c>
       <c r="I51" s="2">
         <f t="shared" si="0"/>
-        <v>0.78407114228456898</v>
+        <v>0.49702176088043992</v>
       </c>
     </row>
     <row r="52" spans="1:9" x14ac:dyDescent="0.35">
@@ -2004,15 +1954,14 @@
         <v>0.80027054108216422</v>
       </c>
       <c r="G52" s="2">
-        <f t="shared" si="1"/>
-        <v>0.80027054108216422</v>
+        <v>0.77911705852926461</v>
       </c>
       <c r="H52" s="2">
         <v>0.75150000000000006</v>
       </c>
       <c r="I52" s="2">
         <f t="shared" si="0"/>
-        <v>4.8770541082164165E-2</v>
+        <v>2.7617058529264549E-2</v>
       </c>
     </row>
     <row r="53" spans="1:9" x14ac:dyDescent="0.35">
@@ -2035,15 +1984,14 @@
         <v>1.3346693386773547</v>
       </c>
       <c r="G53" s="2">
-        <f t="shared" si="1"/>
-        <v>1.3346693386773547</v>
+        <v>1.0669784892446224</v>
       </c>
       <c r="H53" s="2">
         <v>0.75150000000000006</v>
       </c>
       <c r="I53" s="2">
         <f t="shared" si="0"/>
-        <v>0.58316933867735465</v>
+        <v>0.3154784892446223</v>
       </c>
     </row>
     <row r="54" spans="1:9" x14ac:dyDescent="0.35">
@@ -2066,15 +2014,14 @@
         <v>1.6400400801603205</v>
       </c>
       <c r="G54" s="2">
-        <f t="shared" si="1"/>
-        <v>1.6400400801603205</v>
+        <v>1.3809179589794895</v>
       </c>
       <c r="H54" s="2">
         <v>0.75150000000000006</v>
       </c>
       <c r="I54" s="2">
         <f t="shared" si="0"/>
-        <v>0.88854008016032049</v>
+        <v>0.62941795897948949</v>
       </c>
     </row>
     <row r="55" spans="1:9" x14ac:dyDescent="0.35">
@@ -2097,15 +2044,14 @@
         <v>1.7686172344689377</v>
       </c>
       <c r="G55" s="2">
-        <f t="shared" si="1"/>
-        <v>1.7686172344689377</v>
+        <v>1.3397948974487244</v>
       </c>
       <c r="H55" s="2">
         <v>0.75150000000000006</v>
       </c>
       <c r="I55" s="2">
         <f t="shared" si="0"/>
-        <v>1.0171172344689376</v>
+        <v>0.58829489744872432</v>
       </c>
     </row>
     <row r="56" spans="1:9" x14ac:dyDescent="0.35">
@@ -2128,15 +2074,14 @@
         <v>1.5315531062124246</v>
       </c>
       <c r="G56" s="2">
-        <f t="shared" si="1"/>
-        <v>1.5315531062124246</v>
+        <v>1.2164257128564278</v>
       </c>
       <c r="H56" s="2">
         <v>0.75150000000000006</v>
       </c>
       <c r="I56" s="2">
         <f t="shared" si="0"/>
-        <v>0.78005310621242452</v>
+        <v>0.4649257128564277</v>
       </c>
     </row>
     <row r="57" spans="1:9" x14ac:dyDescent="0.35">
@@ -2159,15 +2104,14 @@
         <v>1.3065430861723448</v>
       </c>
       <c r="G57" s="2">
-        <f t="shared" si="1"/>
-        <v>1.3065430861723448</v>
+        <v>1.0358854427213606</v>
       </c>
       <c r="H57" s="2">
         <v>0.75150000000000006</v>
       </c>
       <c r="I57" s="2">
         <f t="shared" si="0"/>
-        <v>0.55504308617234477</v>
+        <v>0.28438544272136057</v>
       </c>
     </row>
     <row r="58" spans="1:9" x14ac:dyDescent="0.35">
@@ -2190,15 +2134,14 @@
         <v>0.77616232464929857</v>
       </c>
       <c r="G58" s="2">
-        <f t="shared" si="1"/>
-        <v>0.77616232464929857</v>
+        <v>0.75805402701350677</v>
       </c>
       <c r="H58" s="2">
         <v>0.75150000000000006</v>
       </c>
       <c r="I58" s="2">
         <f t="shared" si="0"/>
-        <v>2.4662324649298517E-2</v>
+        <v>6.5540270135067136E-3</v>
       </c>
     </row>
     <row r="59" spans="1:9" x14ac:dyDescent="0.35">
@@ -2221,15 +2164,14 @@
         <v>2.1749298597194389</v>
       </c>
       <c r="G59" s="2">
-        <f t="shared" si="1"/>
-        <v>2.1749298597194389</v>
+        <v>1.6276888444222111</v>
       </c>
       <c r="H59" s="1">
         <v>0.79</v>
       </c>
       <c r="I59" s="2">
         <f t="shared" si="0"/>
-        <v>1.3849298597194388</v>
+        <v>0.83768884442221103</v>
       </c>
     </row>
     <row r="60" spans="1:9" x14ac:dyDescent="0.35">
@@ -2252,15 +2194,14 @@
         <v>1.5446092184368736</v>
       </c>
       <c r="G60" s="2">
-        <f t="shared" si="1"/>
-        <v>1.5446092184368736</v>
+        <v>1.2310055027513758</v>
       </c>
       <c r="H60" s="1">
         <v>0.79</v>
       </c>
       <c r="I60" s="2">
         <f t="shared" si="0"/>
-        <v>0.75460921843687356</v>
+        <v>0.44100550275137573</v>
       </c>
     </row>
     <row r="61" spans="1:9" x14ac:dyDescent="0.35">
@@ -2283,15 +2224,14 @@
         <v>1.5090981963927854</v>
       </c>
       <c r="G61" s="2">
-        <f t="shared" si="1"/>
-        <v>1.5090981963927854</v>
+        <v>1.2066283141570784</v>
       </c>
       <c r="H61" s="1">
         <v>0.79</v>
       </c>
       <c r="I61" s="2">
         <f t="shared" si="0"/>
-        <v>0.71909819639278538</v>
+        <v>0.41662831415707835</v>
       </c>
     </row>
     <row r="62" spans="1:9" x14ac:dyDescent="0.35">
@@ -2314,15 +2254,14 @@
         <v>0.96755511022044094</v>
       </c>
       <c r="G62" s="2">
-        <f t="shared" si="1"/>
-        <v>0.96755511022044094</v>
+        <v>0.89637318659329657</v>
       </c>
       <c r="H62" s="1">
         <v>0.79</v>
       </c>
       <c r="I62" s="2">
         <f t="shared" si="0"/>
-        <v>0.1775551102204409</v>
+        <v>0.10637318659329653</v>
       </c>
     </row>
     <row r="63" spans="1:9" x14ac:dyDescent="0.35">
@@ -2345,15 +2284,14 @@
         <v>1.8375751503006013</v>
       </c>
       <c r="G63" s="2">
-        <f t="shared" si="1"/>
-        <v>1.8375751503006013</v>
+        <v>1.4459679839919961</v>
       </c>
       <c r="H63" s="1">
         <v>0.79</v>
       </c>
       <c r="I63" s="2">
         <f t="shared" si="0"/>
-        <v>1.0475751503006012</v>
+        <v>0.65596798399199607</v>
       </c>
     </row>
     <row r="64" spans="1:9" x14ac:dyDescent="0.35">
@@ -2376,15 +2314,14 @@
         <v>0.95867735470941895</v>
       </c>
       <c r="G64" s="2">
-        <f t="shared" si="1"/>
-        <v>0.95867735470941895</v>
+        <v>0.88086043021510763</v>
       </c>
       <c r="H64" s="1">
         <v>0.79</v>
       </c>
       <c r="I64" s="2">
-        <f t="shared" ref="I64:I115" si="2">G64-H64</f>
-        <v>0.16867735470941891</v>
+        <f t="shared" ref="I64:I115" si="1">G64-H64</f>
+        <v>9.086043021510759E-2</v>
       </c>
     </row>
     <row r="65" spans="1:9" x14ac:dyDescent="0.35">
@@ -2407,15 +2344,14 @@
         <v>1.0119438877755511</v>
       </c>
       <c r="G65" s="2">
-        <f t="shared" ref="G65:G115" si="3">F65</f>
-        <v>1.0119438877755511</v>
+        <v>0.92739869934967489</v>
       </c>
       <c r="H65" s="1">
         <v>0.79</v>
       </c>
       <c r="I65" s="2">
-        <f t="shared" si="2"/>
-        <v>0.22194388777555107</v>
+        <f t="shared" si="1"/>
+        <v>0.13739869934967486</v>
       </c>
     </row>
     <row r="66" spans="1:9" x14ac:dyDescent="0.35">
@@ -2438,15 +2374,14 @@
         <v>1.9174749498997998</v>
       </c>
       <c r="G66" s="2">
-        <f t="shared" si="3"/>
-        <v>1.9174749498997998</v>
+        <v>1.4747773886943472</v>
       </c>
       <c r="H66" s="1">
         <v>0.79</v>
       </c>
       <c r="I66" s="2">
-        <f t="shared" si="2"/>
-        <v>1.1274749498997998</v>
+        <f t="shared" si="1"/>
+        <v>0.68477738869434712</v>
       </c>
     </row>
     <row r="67" spans="1:9" x14ac:dyDescent="0.35">
@@ -2469,15 +2404,14 @@
         <v>8.5580360721442865</v>
       </c>
       <c r="G67" s="2">
-        <f t="shared" si="3"/>
-        <v>8.5580360721442865</v>
+        <v>6.2371935967983987</v>
       </c>
       <c r="H67" s="1">
         <v>0.79</v>
       </c>
       <c r="I67" s="2">
-        <f t="shared" si="2"/>
-        <v>7.7680360721442865</v>
+        <f t="shared" si="1"/>
+        <v>5.4471935967983987</v>
       </c>
     </row>
     <row r="68" spans="1:9" x14ac:dyDescent="0.35">
@@ -2500,15 +2434,14 @@
         <v>6.1508491056186445</v>
       </c>
       <c r="G68" s="2">
-        <f t="shared" si="3"/>
-        <v>6.1508491056186445</v>
+        <v>1.625472736368184</v>
       </c>
       <c r="H68" s="1">
         <v>0.79</v>
       </c>
       <c r="I68" s="2">
-        <f t="shared" si="2"/>
-        <v>5.3608491056186445</v>
+        <f t="shared" si="1"/>
+        <v>0.83547273636818398</v>
       </c>
     </row>
     <row r="69" spans="1:9" x14ac:dyDescent="0.35">
@@ -2531,15 +2464,14 @@
         <v>2.4412625250501008</v>
       </c>
       <c r="G69" s="2">
-        <f t="shared" si="3"/>
-        <v>2.4412625250501008</v>
+        <v>1.771735867933967</v>
       </c>
       <c r="H69" s="1">
         <v>0.79</v>
       </c>
       <c r="I69" s="2">
-        <f t="shared" si="2"/>
-        <v>1.6512625250501007</v>
+        <f t="shared" si="1"/>
+        <v>0.98173586793396694</v>
       </c>
     </row>
     <row r="70" spans="1:9" x14ac:dyDescent="0.35">
@@ -2562,15 +2494,14 @@
         <v>1.9174749498997996</v>
       </c>
       <c r="G70" s="2">
-        <f t="shared" si="3"/>
-        <v>1.9174749498997996</v>
+        <v>1.4526163081540771</v>
       </c>
       <c r="H70" s="1">
         <v>0.79</v>
       </c>
       <c r="I70" s="2">
-        <f t="shared" si="2"/>
-        <v>1.1274749498997996</v>
+        <f t="shared" si="1"/>
+        <v>0.66261630815407702</v>
       </c>
     </row>
     <row r="71" spans="1:9" x14ac:dyDescent="0.35">
@@ -2593,15 +2524,14 @@
         <v>1.7044088176352703</v>
       </c>
       <c r="G71" s="2">
-        <f t="shared" si="3"/>
-        <v>1.7044088176352703</v>
+        <v>1.3684042021010505</v>
       </c>
       <c r="H71" s="1">
         <v>0.79</v>
       </c>
       <c r="I71" s="2">
-        <f t="shared" si="2"/>
-        <v>0.91440881763527027</v>
+        <f t="shared" si="1"/>
+        <v>0.57840420210105048</v>
       </c>
     </row>
     <row r="72" spans="1:9" x14ac:dyDescent="0.35">
@@ -2624,15 +2554,14 @@
         <v>2.8496392785571132</v>
       </c>
       <c r="G72" s="2">
-        <f t="shared" si="3"/>
-        <v>2.8496392785571132</v>
+        <v>2.0797748874437216</v>
       </c>
       <c r="H72" s="1">
         <v>0.79</v>
       </c>
       <c r="I72" s="2">
-        <f t="shared" si="2"/>
-        <v>2.0596392785571132</v>
+        <f t="shared" si="1"/>
+        <v>1.2897748874437216</v>
       </c>
     </row>
     <row r="73" spans="1:9" x14ac:dyDescent="0.35">
@@ -2655,15 +2584,14 @@
         <v>1.8642084168336674</v>
       </c>
       <c r="G73" s="2">
-        <f t="shared" si="3"/>
-        <v>1.8642084168336674</v>
+        <v>1.1835807903951976</v>
       </c>
       <c r="H73" s="1">
         <v>0.79</v>
       </c>
       <c r="I73" s="2">
-        <f t="shared" si="2"/>
-        <v>1.0742084168336674</v>
+        <f t="shared" si="1"/>
+        <v>0.39358079039519756</v>
       </c>
     </row>
     <row r="74" spans="1:9" x14ac:dyDescent="0.35">
@@ -2686,14 +2614,13 @@
         <v>9.65</v>
       </c>
       <c r="G74" s="2">
-        <f t="shared" si="3"/>
         <v>9.65</v>
       </c>
       <c r="H74" s="1">
         <v>0.79</v>
       </c>
       <c r="I74" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>8.86</v>
       </c>
     </row>
@@ -2717,14 +2644,13 @@
         <v>9.65</v>
       </c>
       <c r="G75" s="2">
-        <f t="shared" si="3"/>
         <v>9.65</v>
       </c>
       <c r="H75" s="1">
         <v>0.79</v>
       </c>
       <c r="I75" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>8.86</v>
       </c>
     </row>
@@ -2748,15 +2674,14 @@
         <v>9.65</v>
       </c>
       <c r="G76" s="2">
-        <f t="shared" si="3"/>
-        <v>9.65</v>
+        <v>7.4095147573786875</v>
       </c>
       <c r="H76" s="1">
         <v>0.79</v>
       </c>
       <c r="I76" s="2">
-        <f t="shared" si="2"/>
-        <v>8.86</v>
+        <f t="shared" si="1"/>
+        <v>6.6195147573786874</v>
       </c>
     </row>
     <row r="77" spans="1:9" x14ac:dyDescent="0.35">
@@ -2779,15 +2704,14 @@
         <v>2.0683967935871741</v>
       </c>
       <c r="G77" s="2">
-        <f t="shared" si="3"/>
-        <v>2.0683967935871741</v>
+        <v>1.5944472236118059</v>
       </c>
       <c r="H77" s="1">
         <v>0.79</v>
       </c>
       <c r="I77" s="2">
-        <f t="shared" si="2"/>
-        <v>1.2783967935871741</v>
+        <f t="shared" si="1"/>
+        <v>0.80444722361180587</v>
       </c>
     </row>
     <row r="78" spans="1:9" x14ac:dyDescent="0.35">
@@ -2810,15 +2734,14 @@
         <v>0.56424849699398805</v>
       </c>
       <c r="G78" s="2">
-        <f t="shared" si="3"/>
-        <v>0.56424849699398805</v>
+        <v>0.55815907953976995</v>
       </c>
       <c r="H78" s="2">
         <v>0.54100000000000015</v>
       </c>
       <c r="I78" s="2">
-        <f t="shared" si="2"/>
-        <v>2.3248496993987899E-2</v>
+        <f t="shared" si="1"/>
+        <v>1.7159079539769806E-2</v>
       </c>
     </row>
     <row r="79" spans="1:9" x14ac:dyDescent="0.35">
@@ -2841,15 +2764,14 @@
         <v>0.62486973947895796</v>
       </c>
       <c r="G79" s="2">
-        <f t="shared" si="3"/>
-        <v>0.62486973947895796</v>
+        <v>0.59296398199099554</v>
       </c>
       <c r="H79" s="2">
         <v>0.54100000000000015</v>
       </c>
       <c r="I79" s="2">
-        <f t="shared" si="2"/>
-        <v>8.3869739478957817E-2</v>
+        <f t="shared" si="1"/>
+        <v>5.1963981990995389E-2</v>
       </c>
     </row>
     <row r="80" spans="1:9" x14ac:dyDescent="0.35">
@@ -2872,15 +2794,14 @@
         <v>1.1159018036072146</v>
       </c>
       <c r="G80" s="2">
-        <f t="shared" si="3"/>
-        <v>1.1159018036072146</v>
+        <v>0.88956228114057034</v>
       </c>
       <c r="H80" s="2">
         <v>0.54100000000000015</v>
       </c>
       <c r="I80" s="2">
-        <f t="shared" si="2"/>
-        <v>0.57490180360721443</v>
+        <f t="shared" si="1"/>
+        <v>0.3485622811405702</v>
       </c>
     </row>
     <row r="81" spans="1:9" x14ac:dyDescent="0.35">
@@ -2903,15 +2824,14 @@
         <v>0.56424849699398805</v>
       </c>
       <c r="G81" s="2">
-        <f t="shared" si="3"/>
-        <v>0.56424849699398805</v>
+        <v>0.54907953976988499</v>
       </c>
       <c r="H81" s="2">
         <v>0.54100000000000015</v>
       </c>
       <c r="I81" s="2">
-        <f t="shared" si="2"/>
-        <v>2.3248496993987899E-2</v>
+        <f t="shared" si="1"/>
+        <v>8.079539769884847E-3</v>
       </c>
     </row>
     <row r="82" spans="1:9" x14ac:dyDescent="0.35">
@@ -2934,15 +2854,14 @@
         <v>1.3523246492985972</v>
       </c>
       <c r="G82" s="2">
-        <f t="shared" si="3"/>
-        <v>1.3523246492985972</v>
+        <v>1.040887943971986</v>
       </c>
       <c r="H82" s="2">
         <v>0.54100000000000015</v>
       </c>
       <c r="I82" s="2">
-        <f t="shared" si="2"/>
-        <v>0.81132464929859704</v>
+        <f t="shared" si="1"/>
+        <v>0.49988794397198588</v>
       </c>
     </row>
     <row r="83" spans="1:9" x14ac:dyDescent="0.35">
@@ -2965,15 +2884,14 @@
         <v>0.56424849699398805</v>
       </c>
       <c r="G83" s="2">
-        <f t="shared" si="3"/>
-        <v>0.56424849699398805</v>
+        <v>0.55210605302651328</v>
       </c>
       <c r="H83" s="2">
         <v>0.54100000000000015</v>
       </c>
       <c r="I83" s="2">
-        <f t="shared" si="2"/>
-        <v>2.3248496993987899E-2</v>
+        <f t="shared" si="1"/>
+        <v>1.110605302651313E-2</v>
       </c>
     </row>
     <row r="84" spans="1:9" x14ac:dyDescent="0.35">
@@ -2996,15 +2914,14 @@
         <v>1.2189579158316635</v>
       </c>
       <c r="G84" s="2">
-        <f t="shared" si="3"/>
-        <v>1.2189579158316635</v>
+        <v>0.90318159079539728</v>
       </c>
       <c r="H84" s="2">
         <v>0.54100000000000015</v>
       </c>
       <c r="I84" s="2">
-        <f t="shared" si="2"/>
-        <v>0.67795791583166332</v>
+        <f t="shared" si="1"/>
+        <v>0.36218159079539713</v>
       </c>
     </row>
     <row r="85" spans="1:9" x14ac:dyDescent="0.35">
@@ -3027,15 +2944,14 @@
         <v>1.46750501002004</v>
       </c>
       <c r="G85" s="2">
-        <f t="shared" si="3"/>
-        <v>1.46750501002004</v>
+        <v>1.1044447223611809</v>
       </c>
       <c r="H85" s="2">
         <v>0.54100000000000015</v>
       </c>
       <c r="I85" s="2">
-        <f t="shared" si="2"/>
-        <v>0.92650501002003982</v>
+        <f t="shared" si="1"/>
+        <v>0.56344472236118071</v>
       </c>
     </row>
     <row r="86" spans="1:9" x14ac:dyDescent="0.35">
@@ -3058,15 +2974,14 @@
         <v>4.104529058116233</v>
       </c>
       <c r="G86" s="2">
-        <f t="shared" si="3"/>
-        <v>4.104529058116233</v>
+        <v>3.1972786393196566</v>
       </c>
       <c r="H86" s="2">
         <v>0.54100000000000015</v>
       </c>
       <c r="I86" s="2">
-        <f t="shared" si="2"/>
-        <v>3.5635290581162327</v>
+        <f t="shared" si="1"/>
+        <v>2.6562786393196562</v>
       </c>
     </row>
     <row r="87" spans="1:9" x14ac:dyDescent="0.35">
@@ -3089,15 +3004,14 @@
         <v>4.5390534640709994</v>
       </c>
       <c r="G87" s="2">
-        <f t="shared" si="3"/>
-        <v>4.5390534640709994</v>
+        <v>1.137736368184092</v>
       </c>
       <c r="H87" s="2">
         <v>0.54100000000000015</v>
       </c>
       <c r="I87" s="2">
-        <f t="shared" si="2"/>
-        <v>3.998053464070999</v>
+        <f t="shared" si="1"/>
+        <v>0.59673636818409181</v>
       </c>
     </row>
     <row r="88" spans="1:9" x14ac:dyDescent="0.35">
@@ -3120,15 +3034,14 @@
         <v>3.0315330661322655</v>
       </c>
       <c r="G88" s="2">
-        <f t="shared" si="3"/>
-        <v>3.0315330661322655</v>
+        <v>1.9821335667833921</v>
       </c>
       <c r="H88" s="2">
         <v>0.54100000000000015</v>
       </c>
       <c r="I88" s="2">
-        <f t="shared" si="2"/>
-        <v>2.4905330661322651</v>
+        <f t="shared" si="1"/>
+        <v>1.441133566783392</v>
       </c>
     </row>
     <row r="89" spans="1:9" x14ac:dyDescent="0.35">
@@ -3151,15 +3064,14 @@
         <v>0.56424849699398805</v>
       </c>
       <c r="G89" s="2">
-        <f t="shared" si="3"/>
-        <v>0.56424849699398805</v>
+        <v>0.55513256628314156</v>
       </c>
       <c r="H89" s="2">
         <v>0.54100000000000015</v>
       </c>
       <c r="I89" s="2">
-        <f t="shared" si="2"/>
-        <v>2.3248496993987899E-2</v>
+        <f t="shared" si="1"/>
+        <v>1.4132566283141412E-2</v>
       </c>
     </row>
     <row r="90" spans="1:9" x14ac:dyDescent="0.35">
@@ -3182,15 +3094,14 @@
         <v>0.56424849699398805</v>
       </c>
       <c r="G90" s="2">
-        <f t="shared" si="3"/>
-        <v>0.56424849699398805</v>
+        <v>0.55815907953976995</v>
       </c>
       <c r="H90" s="2">
         <v>0.54100000000000015</v>
       </c>
       <c r="I90" s="2">
-        <f t="shared" si="2"/>
-        <v>2.3248496993987899E-2</v>
+        <f t="shared" si="1"/>
+        <v>1.7159079539769806E-2</v>
       </c>
     </row>
     <row r="91" spans="1:9" x14ac:dyDescent="0.35">
@@ -3213,15 +3124,14 @@
         <v>2.4253206412825654</v>
       </c>
       <c r="G91" s="2">
-        <f t="shared" si="3"/>
-        <v>2.4253206412825654</v>
+        <v>1.6310580290145062</v>
       </c>
       <c r="H91" s="2">
         <v>0.54100000000000015</v>
       </c>
       <c r="I91" s="2">
-        <f t="shared" si="2"/>
-        <v>1.8843206412825653</v>
+        <f t="shared" si="1"/>
+        <v>1.0900580290145061</v>
       </c>
     </row>
     <row r="92" spans="1:9" x14ac:dyDescent="0.35">
@@ -3244,15 +3154,14 @@
         <v>1.2310821643286574</v>
       </c>
       <c r="G92" s="2">
-        <f t="shared" si="3"/>
-        <v>1.2310821643286574</v>
+        <v>0.88804902451225631</v>
       </c>
       <c r="H92" s="2">
         <v>0.54100000000000015</v>
       </c>
       <c r="I92" s="2">
-        <f t="shared" si="2"/>
-        <v>0.69008216432865721</v>
+        <f t="shared" si="1"/>
+        <v>0.34704902451225617</v>
       </c>
     </row>
     <row r="93" spans="1:9" x14ac:dyDescent="0.35">
@@ -3275,15 +3184,14 @@
         <v>4.1227154308617235</v>
       </c>
       <c r="G93" s="2">
-        <f t="shared" si="3"/>
-        <v>4.1227154308617235</v>
+        <v>3.2199774887443704</v>
       </c>
       <c r="H93" s="2">
         <v>0.54100000000000015</v>
       </c>
       <c r="I93" s="2">
-        <f t="shared" si="2"/>
-        <v>3.5817154308617232</v>
+        <f t="shared" si="1"/>
+        <v>2.67897748874437</v>
       </c>
     </row>
     <row r="94" spans="1:9" x14ac:dyDescent="0.35">
@@ -3306,15 +3214,14 @@
         <v>4.6278170520144766</v>
       </c>
       <c r="G94" s="2">
-        <f t="shared" si="3"/>
-        <v>4.6278170520144766</v>
+        <v>1.2466908454227115</v>
       </c>
       <c r="H94" s="2">
         <v>0.54100000000000015</v>
       </c>
       <c r="I94" s="2">
-        <f t="shared" si="2"/>
-        <v>4.0868170520144762</v>
+        <f t="shared" si="1"/>
+        <v>0.70569084542271132</v>
       </c>
     </row>
     <row r="95" spans="1:9" x14ac:dyDescent="0.35">
@@ -3337,15 +3244,14 @@
         <v>3.831733466933867</v>
       </c>
       <c r="G95" s="2">
-        <f t="shared" si="3"/>
-        <v>3.831733466933867</v>
+        <v>1.8519934967483742</v>
       </c>
       <c r="H95" s="2">
         <v>0.54100000000000015</v>
       </c>
       <c r="I95" s="2">
-        <f t="shared" si="2"/>
-        <v>3.290733466933867</v>
+        <f t="shared" si="1"/>
+        <v>1.3109934967483741</v>
       </c>
     </row>
     <row r="96" spans="1:9" x14ac:dyDescent="0.35">
@@ -3368,15 +3274,14 @@
         <v>2.0737174348697396</v>
       </c>
       <c r="G96" s="2">
-        <f t="shared" si="3"/>
-        <v>2.0737174348697396</v>
+        <v>1.4645997998999503</v>
       </c>
       <c r="H96" s="2">
         <v>0.54100000000000015</v>
       </c>
       <c r="I96" s="2">
-        <f t="shared" si="2"/>
-        <v>1.5327174348697394</v>
+        <f t="shared" si="1"/>
+        <v>0.92359979989995011</v>
       </c>
     </row>
     <row r="97" spans="1:9" x14ac:dyDescent="0.35">
@@ -3399,15 +3304,14 @@
         <v>1.6478657314629259</v>
       </c>
       <c r="G97" s="2">
-        <f t="shared" si="3"/>
-        <v>1.6478657314629259</v>
+        <v>1.3511405702851425</v>
       </c>
       <c r="H97" s="2">
         <v>0.875</v>
       </c>
       <c r="I97" s="2">
-        <f t="shared" si="2"/>
-        <v>0.77286573146292592</v>
+        <f t="shared" si="1"/>
+        <v>0.47614057028514245</v>
       </c>
     </row>
     <row r="98" spans="1:9" x14ac:dyDescent="0.35">
@@ -3430,15 +3334,14 @@
         <v>1.0902805611222448</v>
       </c>
       <c r="G98" s="2">
-        <f t="shared" si="3"/>
-        <v>1.0902805611222448</v>
+        <v>1.0023136568284141</v>
       </c>
       <c r="H98" s="2">
         <v>0.875</v>
       </c>
       <c r="I98" s="2">
-        <f t="shared" si="2"/>
-        <v>0.21528056112224481</v>
+        <f t="shared" si="1"/>
+        <v>0.12731365682841411</v>
       </c>
     </row>
     <row r="99" spans="1:9" x14ac:dyDescent="0.35">
@@ -3461,15 +3364,14 @@
         <v>1.1728857715430863</v>
       </c>
       <c r="G99" s="2">
-        <f t="shared" si="3"/>
-        <v>1.1728857715430863</v>
+        <v>1.0555827913956979</v>
       </c>
       <c r="H99" s="2">
         <v>0.875</v>
       </c>
       <c r="I99" s="2">
-        <f t="shared" si="2"/>
-        <v>0.29788577154308626</v>
+        <f t="shared" si="1"/>
+        <v>0.18058279139569788</v>
       </c>
     </row>
     <row r="100" spans="1:9" x14ac:dyDescent="0.35">
@@ -3492,15 +3394,14 @@
         <v>1.2210721442885775</v>
       </c>
       <c r="G100" s="2">
-        <f t="shared" si="3"/>
-        <v>1.2210721442885775</v>
+        <v>1.0968234117058531</v>
       </c>
       <c r="H100" s="2">
         <v>0.875</v>
       </c>
       <c r="I100" s="2">
-        <f t="shared" si="2"/>
-        <v>0.34607214428857747</v>
+        <f t="shared" si="1"/>
+        <v>0.22182341170585307</v>
       </c>
     </row>
     <row r="101" spans="1:9" x14ac:dyDescent="0.35">
@@ -3523,15 +3424,14 @@
         <v>1.2141883767535071</v>
       </c>
       <c r="G101" s="2">
-        <f t="shared" si="3"/>
-        <v>1.2141883767535071</v>
+        <v>1.0590195097548774</v>
       </c>
       <c r="H101" s="2">
         <v>0.875</v>
       </c>
       <c r="I101" s="2">
-        <f t="shared" si="2"/>
-        <v>0.3391883767535071</v>
+        <f t="shared" si="1"/>
+        <v>0.18401950975487735</v>
       </c>
     </row>
     <row r="102" spans="1:9" x14ac:dyDescent="0.35">
@@ -3554,15 +3454,14 @@
         <v>0.91818637274549098</v>
       </c>
       <c r="G102" s="2">
-        <f t="shared" si="3"/>
-        <v>0.91818637274549098</v>
+        <v>0.89749374687343675</v>
       </c>
       <c r="H102" s="2">
         <v>0.875</v>
       </c>
       <c r="I102" s="2">
-        <f t="shared" si="2"/>
-        <v>4.3186372745490975E-2</v>
+        <f t="shared" si="1"/>
+        <v>2.2493746873436749E-2</v>
       </c>
     </row>
     <row r="103" spans="1:9" x14ac:dyDescent="0.35">
@@ -3585,15 +3484,14 @@
         <v>1.1866533066132265</v>
       </c>
       <c r="G103" s="2">
-        <f t="shared" si="3"/>
-        <v>1.1866533066132265</v>
+        <v>1.0693296648324162</v>
       </c>
       <c r="H103" s="2">
         <v>0.875</v>
       </c>
       <c r="I103" s="2">
-        <f t="shared" si="2"/>
-        <v>0.31165330661322654</v>
+        <f t="shared" si="1"/>
+        <v>0.1943296648324162</v>
       </c>
     </row>
     <row r="104" spans="1:9" x14ac:dyDescent="0.35">
@@ -3616,15 +3514,14 @@
         <v>1.0902805611222448</v>
       </c>
       <c r="G104" s="2">
-        <f t="shared" si="3"/>
-        <v>1.0902805611222448</v>
+        <v>1.0074687343671838</v>
       </c>
       <c r="H104" s="2">
         <v>0.875</v>
       </c>
       <c r="I104" s="2">
-        <f t="shared" si="2"/>
-        <v>0.21528056112224481</v>
+        <f t="shared" si="1"/>
+        <v>0.13246873436718376</v>
       </c>
     </row>
     <row r="105" spans="1:9" x14ac:dyDescent="0.35">
@@ -3647,15 +3544,14 @@
         <v>1.0902805611222448</v>
       </c>
       <c r="G105" s="2">
-        <f t="shared" si="3"/>
-        <v>1.0902805611222448</v>
+        <v>1.0074687343671838</v>
       </c>
       <c r="H105" s="2">
         <v>0.875</v>
       </c>
       <c r="I105" s="2">
-        <f t="shared" si="2"/>
-        <v>0.21528056112224481</v>
+        <f t="shared" si="1"/>
+        <v>0.13246873436718376</v>
       </c>
     </row>
     <row r="106" spans="1:9" x14ac:dyDescent="0.35">
@@ -3678,15 +3574,14 @@
         <v>2.7492685370741485</v>
       </c>
       <c r="G106" s="2">
-        <f t="shared" si="3"/>
-        <v>2.7492685370741485</v>
+        <v>1.9560030015007506</v>
       </c>
       <c r="H106" s="2">
         <v>0.875</v>
       </c>
       <c r="I106" s="2">
-        <f t="shared" si="2"/>
-        <v>1.8742685370741485</v>
+        <f t="shared" si="1"/>
+        <v>1.0810030015007506</v>
       </c>
     </row>
     <row r="107" spans="1:9" x14ac:dyDescent="0.35">
@@ -3709,15 +3604,14 @@
         <v>1.6822845691382766</v>
       </c>
       <c r="G107" s="2">
-        <f t="shared" si="3"/>
-        <v>1.6822845691382766</v>
+        <v>1.3528589294647324</v>
       </c>
       <c r="H107" s="2">
         <v>0.875</v>
       </c>
       <c r="I107" s="2">
-        <f t="shared" si="2"/>
-        <v>0.80728456913827662</v>
+        <f t="shared" si="1"/>
+        <v>0.47785892946473241</v>
       </c>
     </row>
     <row r="108" spans="1:9" x14ac:dyDescent="0.35">
@@ -3740,15 +3634,14 @@
         <v>1.9920541082164327</v>
       </c>
       <c r="G108" s="2">
-        <f t="shared" si="3"/>
-        <v>1.9920541082164327</v>
+        <v>1.6209229614807406</v>
       </c>
       <c r="H108" s="2">
         <v>0.875</v>
       </c>
       <c r="I108" s="2">
-        <f t="shared" si="2"/>
-        <v>1.1170541082164327</v>
+        <f t="shared" si="1"/>
+        <v>0.74592296148074055</v>
       </c>
     </row>
     <row r="109" spans="1:9" x14ac:dyDescent="0.35">
@@ -3771,15 +3664,14 @@
         <v>1.4138176352705409</v>
       </c>
       <c r="G109" s="2">
-        <f t="shared" si="3"/>
-        <v>1.4138176352705409</v>
+        <v>1.2188269134567282</v>
       </c>
       <c r="H109" s="2">
         <v>0.875</v>
       </c>
       <c r="I109" s="2">
-        <f t="shared" si="2"/>
-        <v>0.53881763527054094</v>
+        <f t="shared" si="1"/>
+        <v>0.34382691345672822</v>
       </c>
     </row>
     <row r="110" spans="1:9" x14ac:dyDescent="0.35">
@@ -3802,15 +3694,14 @@
         <v>1.406933867735471</v>
       </c>
       <c r="G110" s="2">
-        <f t="shared" si="3"/>
-        <v>1.406933867735471</v>
+        <v>1.160402701350675</v>
       </c>
       <c r="H110" s="2">
         <v>0.875</v>
       </c>
       <c r="I110" s="2">
-        <f t="shared" si="2"/>
-        <v>0.53193386773547102</v>
+        <f t="shared" si="1"/>
+        <v>0.28540270135067503</v>
       </c>
     </row>
     <row r="111" spans="1:9" x14ac:dyDescent="0.35">
@@ -3833,15 +3724,14 @@
         <v>1.3380961923847698</v>
       </c>
       <c r="G111" s="2">
-        <f t="shared" si="3"/>
-        <v>1.3380961923847698</v>
+        <v>1.162121060530265</v>
       </c>
       <c r="H111" s="2">
         <v>0.875</v>
       </c>
       <c r="I111" s="2">
-        <f t="shared" si="2"/>
-        <v>0.46309619238476984</v>
+        <f t="shared" si="1"/>
+        <v>0.28712106053026498</v>
       </c>
     </row>
     <row r="112" spans="1:9" x14ac:dyDescent="0.35">
@@ -3864,15 +3754,14 @@
         <v>1.2967935871743488</v>
       </c>
       <c r="G112" s="2">
-        <f t="shared" si="3"/>
-        <v>1.2967935871743488</v>
+        <v>1.12088044022011</v>
       </c>
       <c r="H112" s="2">
         <v>0.875</v>
       </c>
       <c r="I112" s="2">
-        <f t="shared" si="2"/>
-        <v>0.42179358717434878</v>
+        <f t="shared" si="1"/>
+        <v>0.24588044022011002</v>
       </c>
     </row>
     <row r="113" spans="1:9" x14ac:dyDescent="0.35">
@@ -3895,15 +3784,14 @@
         <v>2.7079659318637277</v>
       </c>
       <c r="G113" s="2">
-        <f t="shared" si="3"/>
-        <v>2.7079659318637277</v>
+        <v>1.8889869934967485</v>
       </c>
       <c r="H113" s="2">
         <v>0.875</v>
       </c>
       <c r="I113" s="2">
-        <f t="shared" si="2"/>
-        <v>1.8329659318637277</v>
+        <f t="shared" si="1"/>
+        <v>1.0139869934967485</v>
       </c>
     </row>
     <row r="114" spans="1:9" x14ac:dyDescent="0.35">
@@ -3926,15 +3814,14 @@
         <v>2.0677755511022045</v>
       </c>
       <c r="G114" s="2">
-        <f t="shared" si="3"/>
-        <v>2.0677755511022045</v>
+        <v>1.5951475737868936</v>
       </c>
       <c r="H114" s="2">
         <v>0.875</v>
       </c>
       <c r="I114" s="2">
-        <f t="shared" si="2"/>
-        <v>1.1927755511022045</v>
+        <f t="shared" si="1"/>
+        <v>0.72014757378689365</v>
       </c>
     </row>
     <row r="115" spans="1:9" x14ac:dyDescent="0.35">
@@ -3957,15 +3844,14 @@
         <v>1.6409819639278558</v>
       </c>
       <c r="G115" s="2">
-        <f t="shared" si="3"/>
-        <v>1.6409819639278558</v>
+        <v>1.3339569784892447</v>
       </c>
       <c r="H115" s="2">
         <v>0.875</v>
       </c>
       <c r="I115" s="2">
-        <f t="shared" si="2"/>
-        <v>0.76598196392785578</v>
+        <f t="shared" si="1"/>
+        <v>0.45895697848924466</v>
       </c>
     </row>
   </sheetData>
